--- a/config_Release/fish3d_config.xlsx
+++ b/config_Release/fish3d_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3DBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="381">
   <si>
     <t>line|行号</t>
   </si>
@@ -2128,6 +2128,46 @@
   </si>
   <si>
     <t>"bgm_by_siwang24",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D085</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙虾BOSS</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_lxq</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bytx_cool2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bytx_cool1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bytx_cool1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-100</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.4,0.5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_imgf_zp49</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2709,9 +2749,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AJ34" sqref="AJ34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4002,7 +4042,7 @@
         <v>37</v>
       </c>
       <c r="U14" s="7">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="V14" s="7">
         <v>1</v>
@@ -4464,7 +4504,7 @@
         <v>37</v>
       </c>
       <c r="U19" s="26">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="V19" s="26">
         <v>1</v>
@@ -6283,7 +6323,7 @@
         <v>0.74</v>
       </c>
       <c r="T39" s="35" t="s">
-        <v>25</v>
+        <v>375</v>
       </c>
       <c r="U39" s="37">
         <v>1</v>
@@ -7409,7 +7449,7 @@
         <v>0.22</v>
       </c>
       <c r="T51" s="13" t="s">
-        <v>32</v>
+        <v>374</v>
       </c>
       <c r="U51" s="14">
         <v>0.8</v>
@@ -7443,7 +7483,90 @@
       <c r="AI51" s="21"/>
       <c r="AJ51" s="21"/>
     </row>
-    <row r="52" spans="1:36" s="9" customFormat="1"/>
+    <row r="52" spans="1:36" s="9" customFormat="1">
+      <c r="A52" s="12">
+        <v>51</v>
+      </c>
+      <c r="B52" s="12">
+        <v>51</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="I52" s="13">
+        <v>2.64</v>
+      </c>
+      <c r="J52" s="13">
+        <v>2.38</v>
+      </c>
+      <c r="K52" s="12">
+        <v>1</v>
+      </c>
+      <c r="L52" s="12">
+        <v>30</v>
+      </c>
+      <c r="M52" s="13">
+        <v>1</v>
+      </c>
+      <c r="N52" s="12">
+        <v>200</v>
+      </c>
+      <c r="O52" s="12">
+        <v>4</v>
+      </c>
+      <c r="Q52" s="13">
+        <v>0.64</v>
+      </c>
+      <c r="R52" s="14">
+        <v>0.73</v>
+      </c>
+      <c r="S52" s="14">
+        <v>0.74</v>
+      </c>
+      <c r="T52" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="U52" s="14">
+        <v>1</v>
+      </c>
+      <c r="V52" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="W52" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="Y52" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z52" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="AA52" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC52" s="15">
+        <v>1000</v>
+      </c>
+      <c r="AD52" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="AE52" s="15"/>
+    </row>
     <row r="54" spans="1:36" s="9" customFormat="1"/>
     <row r="55" spans="1:36" s="9" customFormat="1">
       <c r="AI55" s="8"/>

--- a/config_Release/fish3d_config.xlsx
+++ b/config_Release/fish3d_config.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="390">
   <si>
     <t>line|行号</t>
   </si>
@@ -2168,6 +2168,42 @@
   </si>
   <si>
     <t>by_imgf_zp49</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>接吻鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D086</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_icon_jwy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_imgf_jwy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_imgf_jwy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D070_act</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D073_act</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D074_act</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D045_act</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2747,11 +2783,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ56"/>
+  <dimension ref="A1:AJ64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T24" sqref="T24"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7567,11 +7603,468 @@
       </c>
       <c r="AE52" s="15"/>
     </row>
-    <row r="54" spans="1:36" s="9" customFormat="1"/>
+    <row r="53" spans="1:36">
+      <c r="A53" s="12">
+        <v>52</v>
+      </c>
+      <c r="B53" s="12">
+        <v>52</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="I53" s="13">
+        <v>2.64</v>
+      </c>
+      <c r="J53" s="13">
+        <v>2.38</v>
+      </c>
+      <c r="K53" s="12">
+        <v>1</v>
+      </c>
+      <c r="L53" s="12">
+        <v>30</v>
+      </c>
+      <c r="M53" s="13">
+        <v>1</v>
+      </c>
+      <c r="N53" s="12">
+        <v>0</v>
+      </c>
+      <c r="O53" s="12">
+        <v>4</v>
+      </c>
+      <c r="Q53" s="13">
+        <v>0.64</v>
+      </c>
+      <c r="R53" s="14">
+        <v>0.73</v>
+      </c>
+      <c r="S53" s="14">
+        <v>0.74</v>
+      </c>
+      <c r="T53" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="U53" s="14">
+        <v>1</v>
+      </c>
+      <c r="V53" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="W53" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="Y53" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="Z53" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="AA53" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC53" s="15">
+        <v>1000</v>
+      </c>
+      <c r="AD53" s="15">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:36" s="9" customFormat="1">
+      <c r="A54" s="3">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3">
+        <v>53</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I54" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="J54" s="5">
+        <v>0.68</v>
+      </c>
+      <c r="K54" s="3">
+        <v>2</v>
+      </c>
+      <c r="L54" s="3">
+        <v>30</v>
+      </c>
+      <c r="M54" s="6">
+        <v>1</v>
+      </c>
+      <c r="N54" s="3">
+        <v>20</v>
+      </c>
+      <c r="O54" s="3">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="R54" s="7">
+        <v>1</v>
+      </c>
+      <c r="S54" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="T54" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U54" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="V54" s="7">
+        <v>1</v>
+      </c>
+      <c r="W54" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="X54" s="3"/>
+      <c r="Y54" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z54" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC54" s="9">
+        <v>7800</v>
+      </c>
+      <c r="AD54" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="AE54" s="9">
+        <v>2</v>
+      </c>
+      <c r="AF54" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG54" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ54" s="8" t="s">
+        <v>343</v>
+      </c>
+    </row>
     <row r="55" spans="1:36" s="9" customFormat="1">
-      <c r="AI55" s="8"/>
+      <c r="A55" s="3">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3">
+        <v>54</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I55" s="5">
+        <v>1.53</v>
+      </c>
+      <c r="J55" s="5">
+        <v>1.48</v>
+      </c>
+      <c r="K55" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="L55" s="3">
+        <v>30</v>
+      </c>
+      <c r="M55" s="6">
+        <v>1</v>
+      </c>
+      <c r="N55" s="3">
+        <v>30</v>
+      </c>
+      <c r="O55" s="3">
+        <v>4</v>
+      </c>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="R55" s="7">
+        <v>1</v>
+      </c>
+      <c r="S55" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="T55" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U55" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="V55" s="7">
+        <v>1</v>
+      </c>
+      <c r="W55" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="X55" s="3"/>
+      <c r="Y55" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z55" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC55" s="9">
+        <v>7400</v>
+      </c>
+      <c r="AD55" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="AE55" s="9">
+        <v>2</v>
+      </c>
+      <c r="AG55" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ55" s="8" t="s">
+        <v>343</v>
+      </c>
     </row>
-    <row r="56" spans="1:36" s="9" customFormat="1"/>
+    <row r="56" spans="1:36" s="28" customFormat="1">
+      <c r="A56" s="22">
+        <v>55</v>
+      </c>
+      <c r="B56" s="22">
+        <v>55</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="D56" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="E56" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="G56" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="H56" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="I56" s="23">
+        <v>1.53</v>
+      </c>
+      <c r="J56" s="23">
+        <v>1.48</v>
+      </c>
+      <c r="K56" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="L56" s="22">
+        <v>30</v>
+      </c>
+      <c r="M56" s="25">
+        <v>1</v>
+      </c>
+      <c r="N56" s="22">
+        <v>40</v>
+      </c>
+      <c r="O56" s="22">
+        <v>4</v>
+      </c>
+      <c r="P56" s="22"/>
+      <c r="Q56" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="R56" s="26">
+        <v>1</v>
+      </c>
+      <c r="S56" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="T56" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="U56" s="26">
+        <v>0.7</v>
+      </c>
+      <c r="V56" s="26">
+        <v>1</v>
+      </c>
+      <c r="W56" s="26">
+        <v>0.35</v>
+      </c>
+      <c r="X56" s="22"/>
+      <c r="Y56" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z56" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC56" s="28">
+        <v>7200</v>
+      </c>
+      <c r="AD56" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="AE56" s="28">
+        <v>2</v>
+      </c>
+      <c r="AG56" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ56" s="8" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="57" spans="1:36" s="28" customFormat="1">
+      <c r="A57" s="22">
+        <v>56</v>
+      </c>
+      <c r="B57" s="22">
+        <v>56</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="D57" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="E57" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F57" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="G57" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="H57" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="I57" s="23">
+        <v>0.66</v>
+      </c>
+      <c r="J57" s="23">
+        <v>0.89</v>
+      </c>
+      <c r="K57" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="L57" s="22">
+        <v>30</v>
+      </c>
+      <c r="M57" s="25">
+        <v>1</v>
+      </c>
+      <c r="N57" s="22">
+        <v>60</v>
+      </c>
+      <c r="O57" s="22">
+        <v>4</v>
+      </c>
+      <c r="P57" s="22"/>
+      <c r="Q57" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="R57" s="26">
+        <v>1</v>
+      </c>
+      <c r="S57" s="26">
+        <v>0.74</v>
+      </c>
+      <c r="T57" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="U57" s="26">
+        <v>0.7</v>
+      </c>
+      <c r="V57" s="26">
+        <v>1</v>
+      </c>
+      <c r="W57" s="26">
+        <v>0.35</v>
+      </c>
+      <c r="X57" s="22"/>
+      <c r="Y57" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z57" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC57" s="28">
+        <v>7100</v>
+      </c>
+      <c r="AD57" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="AE57" s="28">
+        <v>2</v>
+      </c>
+      <c r="AG57" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="AJ57" s="8" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="61" spans="1:36">
+      <c r="E61" s="13"/>
+    </row>
+    <row r="62" spans="1:36">
+      <c r="E62" s="13"/>
+    </row>
+    <row r="63" spans="1:36">
+      <c r="E63" s="13"/>
+    </row>
+    <row r="64" spans="1:36">
+      <c r="E64" s="13"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_Release/fish3d_config.xlsx
+++ b/config_Release/fish3d_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_9.29\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="394">
   <si>
     <t>line|行号</t>
   </si>
@@ -2204,6 +2204,22 @@
   </si>
   <si>
     <t>Fish3D045_act</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D087</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_icon_xxboss</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_imgf_zp53</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>星星鱼</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2785,9 +2801,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G62" sqref="G62"/>
+      <selection pane="topRight" activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8053,6 +8069,89 @@
         <v>344</v>
       </c>
     </row>
+    <row r="58" spans="1:36">
+      <c r="A58" s="12">
+        <v>57</v>
+      </c>
+      <c r="B58" s="12">
+        <v>57</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="I58" s="13">
+        <v>2.64</v>
+      </c>
+      <c r="J58" s="13">
+        <v>2.38</v>
+      </c>
+      <c r="K58" s="12">
+        <v>1</v>
+      </c>
+      <c r="L58" s="12">
+        <v>30</v>
+      </c>
+      <c r="M58" s="13">
+        <v>1</v>
+      </c>
+      <c r="N58" s="12">
+        <v>0</v>
+      </c>
+      <c r="O58" s="12">
+        <v>4</v>
+      </c>
+      <c r="Q58" s="13">
+        <v>0.64</v>
+      </c>
+      <c r="R58" s="14">
+        <v>0.73</v>
+      </c>
+      <c r="S58" s="14">
+        <v>0.74</v>
+      </c>
+      <c r="T58" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="U58" s="14">
+        <v>1</v>
+      </c>
+      <c r="V58" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="W58" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="Y58" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="Z58" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="AA58" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC58" s="15">
+        <v>1000</v>
+      </c>
+      <c r="AD58" s="15">
+        <v>1.5</v>
+      </c>
+    </row>
     <row r="61" spans="1:36">
       <c r="E61" s="13"/>
     </row>

--- a/config_Release/fish3d_config.xlsx
+++ b/config_Release/fish3d_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_9.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="411">
   <si>
     <t>line|行号</t>
   </si>
@@ -2220,6 +2220,230 @@
   </si>
   <si>
     <t>星星鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4,11,12</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,11,12</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,11,12</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,10,11,12</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,7</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2368,7 +2592,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2521,6 +2745,9 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2801,9 +3028,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F62" sqref="F62"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="U1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="X48" sqref="X48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3013,7 +3240,9 @@
       <c r="W2" s="7">
         <v>1</v>
       </c>
-      <c r="X2" s="3"/>
+      <c r="X2" s="51" t="s">
+        <v>398</v>
+      </c>
       <c r="Y2" s="8" t="s">
         <v>26</v>
       </c>
@@ -3104,7 +3333,9 @@
       <c r="W3" s="7">
         <v>0.8</v>
       </c>
-      <c r="X3" s="3"/>
+      <c r="X3" s="51" t="s">
+        <v>398</v>
+      </c>
       <c r="Y3" s="8" t="s">
         <v>26</v>
       </c>
@@ -3192,7 +3423,9 @@
       <c r="W4" s="7">
         <v>0.35</v>
       </c>
-      <c r="X4" s="3"/>
+      <c r="X4" s="51" t="s">
+        <v>399</v>
+      </c>
       <c r="Y4" s="8" t="s">
         <v>29</v>
       </c>
@@ -3283,7 +3516,9 @@
       <c r="W5" s="7">
         <v>0.6</v>
       </c>
-      <c r="X5" s="3"/>
+      <c r="X5" s="51" t="s">
+        <v>400</v>
+      </c>
       <c r="Y5" s="8" t="s">
         <v>26</v>
       </c>
@@ -3371,7 +3606,9 @@
       <c r="W6" s="7">
         <v>0.5</v>
       </c>
-      <c r="X6" s="3"/>
+      <c r="X6" s="51" t="s">
+        <v>399</v>
+      </c>
       <c r="Y6" s="8" t="s">
         <v>26</v>
       </c>
@@ -3459,7 +3696,9 @@
       <c r="W7" s="7">
         <v>0.4</v>
       </c>
-      <c r="X7" s="3"/>
+      <c r="X7" s="51" t="s">
+        <v>399</v>
+      </c>
       <c r="Y7" s="8" t="s">
         <v>33</v>
       </c>
@@ -3550,7 +3789,9 @@
       <c r="W8" s="7">
         <v>0.35</v>
       </c>
-      <c r="X8" s="3"/>
+      <c r="X8" s="51" t="s">
+        <v>399</v>
+      </c>
       <c r="Y8" s="8" t="s">
         <v>29</v>
       </c>
@@ -3639,7 +3880,9 @@
       <c r="W9" s="7">
         <v>0.4</v>
       </c>
-      <c r="X9" s="3"/>
+      <c r="X9" s="51" t="s">
+        <v>400</v>
+      </c>
       <c r="Y9" s="8" t="s">
         <v>33</v>
       </c>
@@ -3731,7 +3974,9 @@
       <c r="W10" s="7">
         <v>0.45</v>
       </c>
-      <c r="X10" s="3"/>
+      <c r="X10" s="51" t="s">
+        <v>400</v>
+      </c>
       <c r="Y10" s="10" t="s">
         <v>34</v>
       </c>
@@ -3826,7 +4071,9 @@
       <c r="W11" s="7">
         <v>0.5</v>
       </c>
-      <c r="X11" s="3"/>
+      <c r="X11" s="51" t="s">
+        <v>400</v>
+      </c>
       <c r="Y11" s="8" t="s">
         <v>35</v>
       </c>
@@ -3918,7 +4165,9 @@
       <c r="W12" s="7">
         <v>0.35</v>
       </c>
-      <c r="X12" s="3"/>
+      <c r="X12" s="51" t="s">
+        <v>401</v>
+      </c>
       <c r="Y12" s="8" t="s">
         <v>35</v>
       </c>
@@ -4010,7 +4259,9 @@
       <c r="W13" s="7">
         <v>0.35</v>
       </c>
-      <c r="X13" s="3"/>
+      <c r="X13" s="51" t="s">
+        <v>399</v>
+      </c>
       <c r="Y13" s="8" t="s">
         <v>38</v>
       </c>
@@ -4102,7 +4353,9 @@
       <c r="W14" s="7">
         <v>0.35</v>
       </c>
-      <c r="X14" s="3"/>
+      <c r="X14" s="51" t="s">
+        <v>402</v>
+      </c>
       <c r="Y14" s="8" t="s">
         <v>40</v>
       </c>
@@ -4197,7 +4450,9 @@
       <c r="W15" s="7">
         <v>0.4</v>
       </c>
-      <c r="X15" s="3"/>
+      <c r="X15" s="51" t="s">
+        <v>394</v>
+      </c>
       <c r="Y15" s="8" t="s">
         <v>33</v>
       </c>
@@ -4291,7 +4546,9 @@
       <c r="W16" s="7">
         <v>0.35</v>
       </c>
-      <c r="X16" s="3"/>
+      <c r="X16" s="51" t="s">
+        <v>395</v>
+      </c>
       <c r="Y16" s="8" t="s">
         <v>35</v>
       </c>
@@ -4382,7 +4639,9 @@
       <c r="W17" s="7">
         <v>0.5</v>
       </c>
-      <c r="X17" s="3"/>
+      <c r="X17" s="51" t="s">
+        <v>396</v>
+      </c>
       <c r="Y17" s="8" t="s">
         <v>35</v>
       </c>
@@ -4473,7 +4732,9 @@
       <c r="W18" s="26">
         <v>0.35</v>
       </c>
-      <c r="X18" s="22"/>
+      <c r="X18" s="51" t="s">
+        <v>395</v>
+      </c>
       <c r="Y18" s="27" t="s">
         <v>35</v>
       </c>
@@ -4564,7 +4825,9 @@
       <c r="W19" s="26">
         <v>0.35</v>
       </c>
-      <c r="X19" s="22"/>
+      <c r="X19" s="51" t="s">
+        <v>395</v>
+      </c>
       <c r="Y19" s="27" t="s">
         <v>38</v>
       </c>
@@ -4655,7 +4918,9 @@
       <c r="W20" s="26">
         <v>0.35</v>
       </c>
-      <c r="X20" s="22"/>
+      <c r="X20" s="31" t="s">
+        <v>403</v>
+      </c>
       <c r="Y20" s="27" t="s">
         <v>40</v>
       </c>
@@ -4742,7 +5007,9 @@
       <c r="W21" s="7">
         <v>0.35</v>
       </c>
-      <c r="X21" s="3"/>
+      <c r="X21" s="51" t="s">
+        <v>404</v>
+      </c>
       <c r="Y21" s="8" t="s">
         <v>45</v>
       </c>
@@ -4836,7 +5103,9 @@
       <c r="W22" s="26">
         <v>0.35</v>
       </c>
-      <c r="X22" s="22"/>
+      <c r="X22" s="31" t="s">
+        <v>405</v>
+      </c>
       <c r="Y22" s="27" t="s">
         <v>42</v>
       </c>
@@ -4924,7 +5193,9 @@
       <c r="W23" s="7">
         <v>0.35</v>
       </c>
-      <c r="X23" s="3"/>
+      <c r="X23" s="51" t="s">
+        <v>406</v>
+      </c>
       <c r="Y23" s="8" t="s">
         <v>42</v>
       </c>
@@ -5015,7 +5286,9 @@
       <c r="W24" s="7">
         <v>0.8</v>
       </c>
-      <c r="X24" s="3"/>
+      <c r="X24" s="51" t="s">
+        <v>407</v>
+      </c>
       <c r="Y24" s="8" t="s">
         <v>26</v>
       </c>
@@ -5106,7 +5379,9 @@
       <c r="W25" s="7">
         <v>0.7</v>
       </c>
-      <c r="X25" s="3"/>
+      <c r="X25" s="51" t="s">
+        <v>407</v>
+      </c>
       <c r="Y25" s="8" t="s">
         <v>26</v>
       </c>
@@ -5194,6 +5469,9 @@
       <c r="W26" s="26">
         <v>0.35</v>
       </c>
+      <c r="X26" s="51" t="s">
+        <v>407</v>
+      </c>
       <c r="Y26" s="27" t="s">
         <v>49</v>
       </c>
@@ -5282,6 +5560,9 @@
       <c r="W27" s="26">
         <v>0.35</v>
       </c>
+      <c r="X27" s="51" t="s">
+        <v>407</v>
+      </c>
       <c r="Y27" s="27" t="s">
         <v>40</v>
       </c>
@@ -5376,7 +5657,9 @@
       <c r="W28" s="26">
         <v>0.1</v>
       </c>
-      <c r="X28" s="22"/>
+      <c r="X28" s="31" t="s">
+        <v>404</v>
+      </c>
       <c r="Y28" s="27" t="s">
         <v>61</v>
       </c>
@@ -5433,7 +5716,7 @@
         <v>0.8</v>
       </c>
       <c r="K29" s="22">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="L29" s="22">
         <v>30</v>
@@ -5525,7 +5808,7 @@
         <v>2.84</v>
       </c>
       <c r="K30" s="22">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="L30" s="22">
         <v>30</v>
@@ -5560,6 +5843,9 @@
       </c>
       <c r="W30" s="26">
         <v>0.35</v>
+      </c>
+      <c r="X30" s="31" t="s">
+        <v>408</v>
       </c>
       <c r="Y30" s="27" t="s">
         <v>42</v>
@@ -5615,7 +5901,7 @@
         <v>2.77</v>
       </c>
       <c r="K31" s="22">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="L31" s="22">
         <v>30</v>
@@ -5650,7 +5936,9 @@
       <c r="W31" s="26">
         <v>0.35</v>
       </c>
-      <c r="X31" s="22"/>
+      <c r="X31" s="31" t="s">
+        <v>409</v>
+      </c>
       <c r="Y31" s="27" t="s">
         <v>40</v>
       </c>
@@ -5706,7 +5994,7 @@
         <v>1.96</v>
       </c>
       <c r="K32" s="22">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="L32" s="22">
         <v>30</v>
@@ -5742,7 +6030,9 @@
       <c r="W32" s="26">
         <v>0.35</v>
       </c>
-      <c r="X32" s="22"/>
+      <c r="X32" s="31" t="s">
+        <v>410</v>
+      </c>
       <c r="Y32" s="27" t="s">
         <v>40</v>
       </c>
@@ -5801,7 +6091,7 @@
         <v>2.27</v>
       </c>
       <c r="K33" s="22">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="L33" s="22">
         <v>30</v>
@@ -5891,7 +6181,7 @@
         <v>3</v>
       </c>
       <c r="K34" s="22">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="L34" s="22">
         <v>30</v>
@@ -5927,7 +6217,9 @@
       <c r="W34" s="26">
         <v>0.35</v>
       </c>
-      <c r="X34" s="22"/>
+      <c r="X34" s="31" t="s">
+        <v>397</v>
+      </c>
       <c r="Y34" s="27" t="s">
         <v>40</v>
       </c>
@@ -6477,6 +6769,7 @@
       <c r="W40" s="37">
         <v>0.35</v>
       </c>
+      <c r="X40" s="34"/>
       <c r="Y40" s="38" t="s">
         <v>299</v>
       </c>
@@ -6573,6 +6866,7 @@
       <c r="W41" s="37">
         <v>0.35</v>
       </c>
+      <c r="X41" s="34"/>
       <c r="Y41" s="38" t="s">
         <v>51</v>
       </c>

--- a/config_Release/fish3d_config.xlsx
+++ b/config_Release/fish3d_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="420">
   <si>
     <t>line|行号</t>
   </si>
@@ -2461,6 +2461,25 @@
   <si>
     <t>by_iocn_hjboss</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D089</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>话费鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_iocn_hfy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_hfy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_iocn_hfy</t>
   </si>
 </sst>
 </file>
@@ -3068,9 +3087,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8569,6 +8588,89 @@
         <v>1.5</v>
       </c>
     </row>
+    <row r="60" spans="1:36" s="54" customFormat="1">
+      <c r="A60" s="12">
+        <v>59</v>
+      </c>
+      <c r="B60" s="12">
+        <v>59</v>
+      </c>
+      <c r="C60" s="53" t="s">
+        <v>415</v>
+      </c>
+      <c r="D60" s="53" t="s">
+        <v>417</v>
+      </c>
+      <c r="E60" s="53" t="s">
+        <v>416</v>
+      </c>
+      <c r="F60" s="53" t="s">
+        <v>418</v>
+      </c>
+      <c r="G60" s="53" t="s">
+        <v>419</v>
+      </c>
+      <c r="H60" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="I60" s="53">
+        <v>2.64</v>
+      </c>
+      <c r="J60" s="53">
+        <v>2.38</v>
+      </c>
+      <c r="K60" s="52">
+        <v>1</v>
+      </c>
+      <c r="L60" s="52">
+        <v>30</v>
+      </c>
+      <c r="M60" s="53">
+        <v>1</v>
+      </c>
+      <c r="N60" s="52">
+        <v>0</v>
+      </c>
+      <c r="O60" s="52">
+        <v>4</v>
+      </c>
+      <c r="Q60" s="53">
+        <v>0.64</v>
+      </c>
+      <c r="R60" s="55">
+        <v>0.73</v>
+      </c>
+      <c r="S60" s="55">
+        <v>0.74</v>
+      </c>
+      <c r="T60" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="U60" s="55">
+        <v>1</v>
+      </c>
+      <c r="V60" s="55">
+        <v>0.8</v>
+      </c>
+      <c r="W60" s="55">
+        <v>0.1</v>
+      </c>
+      <c r="Y60" s="56" t="s">
+        <v>342</v>
+      </c>
+      <c r="Z60" s="57" t="s">
+        <v>378</v>
+      </c>
+      <c r="AA60" s="57">
+        <v>1</v>
+      </c>
+      <c r="AC60" s="57">
+        <v>1000</v>
+      </c>
+      <c r="AD60" s="57">
+        <v>1.5</v>
+      </c>
+    </row>
     <row r="61" spans="1:36">
       <c r="E61" s="13"/>
     </row>

--- a/config_Release/fish3d_config.xlsx
+++ b/config_Release/fish3d_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.24\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="415">
   <si>
     <t>line|行号</t>
   </si>
@@ -2444,6 +2444,22 @@
       </rPr>
       <t>,</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D088</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_imgf_zp54</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>火鸡鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_iocn_hjboss</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2530,7 +2546,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2546,6 +2562,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2592,7 +2614,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2748,6 +2770,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3028,9 +3068,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X48" sqref="X48"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8446,6 +8486,89 @@
         <v>1.5</v>
       </c>
     </row>
+    <row r="59" spans="1:36" s="54" customFormat="1">
+      <c r="A59" s="52">
+        <v>58</v>
+      </c>
+      <c r="B59" s="52">
+        <v>58</v>
+      </c>
+      <c r="C59" s="53" t="s">
+        <v>411</v>
+      </c>
+      <c r="D59" s="53" t="s">
+        <v>414</v>
+      </c>
+      <c r="E59" s="53" t="s">
+        <v>413</v>
+      </c>
+      <c r="F59" s="53" t="s">
+        <v>412</v>
+      </c>
+      <c r="G59" s="53" t="s">
+        <v>412</v>
+      </c>
+      <c r="H59" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="I59" s="53">
+        <v>2.64</v>
+      </c>
+      <c r="J59" s="53">
+        <v>2.38</v>
+      </c>
+      <c r="K59" s="52">
+        <v>1</v>
+      </c>
+      <c r="L59" s="52">
+        <v>30</v>
+      </c>
+      <c r="M59" s="53">
+        <v>1</v>
+      </c>
+      <c r="N59" s="52">
+        <v>0</v>
+      </c>
+      <c r="O59" s="52">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="53">
+        <v>0.64</v>
+      </c>
+      <c r="R59" s="55">
+        <v>0.73</v>
+      </c>
+      <c r="S59" s="55">
+        <v>0.74</v>
+      </c>
+      <c r="T59" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="U59" s="55">
+        <v>1</v>
+      </c>
+      <c r="V59" s="55">
+        <v>0.8</v>
+      </c>
+      <c r="W59" s="55">
+        <v>0.1</v>
+      </c>
+      <c r="Y59" s="56" t="s">
+        <v>342</v>
+      </c>
+      <c r="Z59" s="57" t="s">
+        <v>378</v>
+      </c>
+      <c r="AA59" s="57">
+        <v>1</v>
+      </c>
+      <c r="AC59" s="57">
+        <v>1000</v>
+      </c>
+      <c r="AD59" s="57">
+        <v>1.5</v>
+      </c>
+    </row>
     <row r="61" spans="1:36">
       <c r="E61" s="13"/>
     </row>

--- a/config_Release/fish3d_config.xlsx
+++ b/config_Release/fish3d_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="423">
   <si>
     <t>line|行号</t>
   </si>
@@ -2480,6 +2480,18 @@
   </si>
   <si>
     <t>by_iocn_hfy</t>
+  </si>
+  <si>
+    <t>Fish3D090</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_lhy_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼盒boss</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2565,7 +2577,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2587,6 +2599,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2633,7 +2651,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2806,6 +2824,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3089,7 +3125,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F60" sqref="F60"/>
+      <selection pane="bottomLeft" activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8671,8 +8707,88 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="61" spans="1:36">
-      <c r="E61" s="13"/>
+    <row r="61" spans="1:36" s="60" customFormat="1">
+      <c r="A61" s="58">
+        <v>60</v>
+      </c>
+      <c r="B61" s="58">
+        <v>60</v>
+      </c>
+      <c r="C61" s="59" t="s">
+        <v>420</v>
+      </c>
+      <c r="D61" s="59" t="s">
+        <v>421</v>
+      </c>
+      <c r="E61" s="59" t="s">
+        <v>422</v>
+      </c>
+      <c r="F61" s="59" t="s">
+        <v>418</v>
+      </c>
+      <c r="G61" s="59" t="s">
+        <v>421</v>
+      </c>
+      <c r="H61" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="I61" s="59">
+        <v>2.64</v>
+      </c>
+      <c r="J61" s="59">
+        <v>2.38</v>
+      </c>
+      <c r="K61" s="58">
+        <v>1</v>
+      </c>
+      <c r="L61" s="58">
+        <v>30</v>
+      </c>
+      <c r="M61" s="59">
+        <v>1</v>
+      </c>
+      <c r="N61" s="58">
+        <v>0</v>
+      </c>
+      <c r="O61" s="58">
+        <v>4</v>
+      </c>
+      <c r="Q61" s="59">
+        <v>0.64</v>
+      </c>
+      <c r="R61" s="61">
+        <v>0.73</v>
+      </c>
+      <c r="S61" s="61">
+        <v>0.74</v>
+      </c>
+      <c r="T61" s="59" t="s">
+        <v>341</v>
+      </c>
+      <c r="U61" s="61">
+        <v>1</v>
+      </c>
+      <c r="V61" s="61">
+        <v>0.8</v>
+      </c>
+      <c r="W61" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="Y61" s="62" t="s">
+        <v>342</v>
+      </c>
+      <c r="Z61" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA61" s="63">
+        <v>1</v>
+      </c>
+      <c r="AC61" s="63">
+        <v>1000</v>
+      </c>
+      <c r="AD61" s="63">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="62" spans="1:36">
       <c r="E62" s="13"/>

--- a/config_Release/fish3d_config.xlsx
+++ b/config_Release/fish3d_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.15\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="426">
   <si>
     <t>line|行号</t>
   </si>
@@ -2493,6 +2493,17 @@
     <t>礼盒boss</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>Fish3D091</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>饺子boss</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_iocn_jzy</t>
+  </si>
 </sst>
 </file>
 
@@ -2501,7 +2512,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2575,6 +2586,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111F2C"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2651,7 +2668,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2843,6 +2860,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3125,7 +3151,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D61" sqref="D61"/>
+      <selection pane="bottomLeft" activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8790,8 +8816,88 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="62" spans="1:36">
-      <c r="E62" s="13"/>
+    <row r="62" spans="1:36" s="65" customFormat="1" ht="16.5">
+      <c r="A62" s="52">
+        <v>61</v>
+      </c>
+      <c r="B62" s="52">
+        <v>61</v>
+      </c>
+      <c r="C62" s="53" t="s">
+        <v>423</v>
+      </c>
+      <c r="D62" s="64" t="s">
+        <v>425</v>
+      </c>
+      <c r="E62" s="53" t="s">
+        <v>424</v>
+      </c>
+      <c r="F62" s="64" t="s">
+        <v>425</v>
+      </c>
+      <c r="G62" s="64" t="s">
+        <v>425</v>
+      </c>
+      <c r="H62" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="I62" s="53">
+        <v>2.64</v>
+      </c>
+      <c r="J62" s="53">
+        <v>2.38</v>
+      </c>
+      <c r="K62" s="52">
+        <v>1</v>
+      </c>
+      <c r="L62" s="52">
+        <v>30</v>
+      </c>
+      <c r="M62" s="53">
+        <v>1</v>
+      </c>
+      <c r="N62" s="52">
+        <v>0</v>
+      </c>
+      <c r="O62" s="52">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="53">
+        <v>0.64</v>
+      </c>
+      <c r="R62" s="55">
+        <v>0.73</v>
+      </c>
+      <c r="S62" s="55">
+        <v>0.74</v>
+      </c>
+      <c r="T62" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="U62" s="55">
+        <v>1</v>
+      </c>
+      <c r="V62" s="55">
+        <v>0.8</v>
+      </c>
+      <c r="W62" s="55">
+        <v>0.1</v>
+      </c>
+      <c r="Y62" s="66" t="s">
+        <v>342</v>
+      </c>
+      <c r="Z62" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA62" s="52">
+        <v>1</v>
+      </c>
+      <c r="AC62" s="52">
+        <v>1000</v>
+      </c>
+      <c r="AD62" s="52">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="63" spans="1:36">
       <c r="E63" s="13"/>

--- a/config_Release/fish3d_config.xlsx
+++ b/config_Release/fish3d_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2594,7 +2594,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2622,6 +2622,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2668,7 +2674,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2869,6 +2875,30 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3149,9 +3179,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F74" sqref="F74"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U56" sqref="U56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4785,96 +4815,96 @@
         <v>343</v>
       </c>
     </row>
-    <row r="18" spans="1:36" s="28" customFormat="1">
-      <c r="A18" s="22">
+    <row r="18" spans="1:36" s="74" customFormat="1">
+      <c r="A18" s="67">
         <v>17</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="67">
         <v>17</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="68" t="s">
         <v>157</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="68" t="s">
         <v>213</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="68" t="s">
         <v>311</v>
       </c>
-      <c r="H18" s="23" t="s">
+      <c r="H18" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="68">
         <v>1.53</v>
       </c>
-      <c r="J18" s="23">
+      <c r="J18" s="68">
         <v>1.48</v>
       </c>
-      <c r="K18" s="22">
+      <c r="K18" s="67">
         <v>0.8</v>
       </c>
-      <c r="L18" s="22">
+      <c r="L18" s="67">
         <v>30</v>
       </c>
-      <c r="M18" s="25">
-        <v>1</v>
-      </c>
-      <c r="N18" s="22">
+      <c r="M18" s="70">
+        <v>1</v>
+      </c>
+      <c r="N18" s="67">
         <v>40</v>
       </c>
-      <c r="O18" s="22">
+      <c r="O18" s="67">
         <v>4</v>
       </c>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="23">
+      <c r="P18" s="67"/>
+      <c r="Q18" s="68">
         <v>0.7</v>
       </c>
-      <c r="R18" s="26">
-        <v>1</v>
-      </c>
-      <c r="S18" s="26">
+      <c r="R18" s="71">
+        <v>1</v>
+      </c>
+      <c r="S18" s="71">
         <v>0.6</v>
       </c>
-      <c r="T18" s="23" t="s">
+      <c r="T18" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="U18" s="26">
-        <v>0.7</v>
-      </c>
-      <c r="V18" s="26">
-        <v>1</v>
-      </c>
-      <c r="W18" s="26">
+      <c r="U18" s="71">
+        <v>1.2</v>
+      </c>
+      <c r="V18" s="71">
+        <v>1</v>
+      </c>
+      <c r="W18" s="71">
         <v>0.35</v>
       </c>
-      <c r="X18" s="51" t="s">
+      <c r="X18" s="72" t="s">
         <v>395</v>
       </c>
-      <c r="Y18" s="27" t="s">
+      <c r="Y18" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="Z18" s="27" t="s">
+      <c r="Z18" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="AC18" s="28">
+      <c r="AC18" s="74">
         <v>7200</v>
       </c>
-      <c r="AD18" s="28">
+      <c r="AD18" s="74">
         <v>1.5</v>
       </c>
-      <c r="AE18" s="28">
+      <c r="AE18" s="74">
         <v>2</v>
       </c>
-      <c r="AG18" s="27" t="s">
+      <c r="AG18" s="73" t="s">
         <v>185</v>
       </c>
-      <c r="AJ18" s="8" t="s">
+      <c r="AJ18" s="73" t="s">
         <v>343</v>
       </c>
     </row>
@@ -8302,94 +8332,94 @@
         <v>343</v>
       </c>
     </row>
-    <row r="56" spans="1:36" s="28" customFormat="1">
-      <c r="A56" s="22">
+    <row r="56" spans="1:36" s="74" customFormat="1">
+      <c r="A56" s="67">
         <v>55</v>
       </c>
-      <c r="B56" s="22">
+      <c r="B56" s="67">
         <v>55</v>
       </c>
-      <c r="C56" s="23" t="s">
+      <c r="C56" s="68" t="s">
         <v>387</v>
       </c>
-      <c r="D56" s="23" t="s">
+      <c r="D56" s="68" t="s">
         <v>213</v>
       </c>
-      <c r="E56" s="24" t="s">
+      <c r="E56" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="F56" s="24" t="s">
+      <c r="F56" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="G56" s="23" t="s">
+      <c r="G56" s="68" t="s">
         <v>311</v>
       </c>
-      <c r="H56" s="23" t="s">
+      <c r="H56" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="I56" s="23">
+      <c r="I56" s="68">
         <v>1.53</v>
       </c>
-      <c r="J56" s="23">
+      <c r="J56" s="68">
         <v>1.48</v>
       </c>
-      <c r="K56" s="22">
+      <c r="K56" s="67">
         <v>0.8</v>
       </c>
-      <c r="L56" s="22">
+      <c r="L56" s="67">
         <v>30</v>
       </c>
-      <c r="M56" s="25">
-        <v>1</v>
-      </c>
-      <c r="N56" s="22">
+      <c r="M56" s="70">
+        <v>1</v>
+      </c>
+      <c r="N56" s="67">
         <v>40</v>
       </c>
-      <c r="O56" s="22">
+      <c r="O56" s="67">
         <v>4</v>
       </c>
-      <c r="P56" s="22"/>
-      <c r="Q56" s="23">
+      <c r="P56" s="67"/>
+      <c r="Q56" s="68">
         <v>0.7</v>
       </c>
-      <c r="R56" s="26">
-        <v>1</v>
-      </c>
-      <c r="S56" s="26">
+      <c r="R56" s="71">
+        <v>1</v>
+      </c>
+      <c r="S56" s="71">
         <v>0.6</v>
       </c>
-      <c r="T56" s="23" t="s">
+      <c r="T56" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="U56" s="26">
-        <v>0.7</v>
-      </c>
-      <c r="V56" s="26">
-        <v>1</v>
-      </c>
-      <c r="W56" s="26">
+      <c r="U56" s="71">
+        <v>1.2</v>
+      </c>
+      <c r="V56" s="71">
+        <v>1</v>
+      </c>
+      <c r="W56" s="71">
         <v>0.35</v>
       </c>
-      <c r="X56" s="22"/>
-      <c r="Y56" s="27" t="s">
+      <c r="X56" s="67"/>
+      <c r="Y56" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="Z56" s="27" t="s">
+      <c r="Z56" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="AC56" s="28">
+      <c r="AC56" s="74">
         <v>7200</v>
       </c>
-      <c r="AD56" s="28">
+      <c r="AD56" s="74">
         <v>1.5</v>
       </c>
-      <c r="AE56" s="28">
+      <c r="AE56" s="74">
         <v>2</v>
       </c>
-      <c r="AG56" s="27" t="s">
+      <c r="AG56" s="73" t="s">
         <v>185</v>
       </c>
-      <c r="AJ56" s="8" t="s">
+      <c r="AJ56" s="73" t="s">
         <v>343</v>
       </c>
     </row>

--- a/config_Release/fish3d_config.xlsx
+++ b/config_Release/fish3d_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2891,14 +2891,14 @@
     <xf numFmtId="176" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3179,9 +3179,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U56" sqref="U56"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4815,7 +4815,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="18" spans="1:36" s="74" customFormat="1">
+    <row r="18" spans="1:36" s="73" customFormat="1">
       <c r="A18" s="67">
         <v>17</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>37</v>
       </c>
       <c r="U18" s="71">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="V18" s="71">
         <v>1</v>
@@ -4883,28 +4883,28 @@
       <c r="W18" s="71">
         <v>0.35</v>
       </c>
-      <c r="X18" s="72" t="s">
+      <c r="X18" s="74" t="s">
         <v>395</v>
       </c>
-      <c r="Y18" s="73" t="s">
+      <c r="Y18" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="Z18" s="73" t="s">
+      <c r="Z18" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="AC18" s="74">
+      <c r="AC18" s="73">
         <v>7200</v>
       </c>
-      <c r="AD18" s="74">
+      <c r="AD18" s="73">
         <v>1.5</v>
       </c>
-      <c r="AE18" s="74">
+      <c r="AE18" s="73">
         <v>2</v>
       </c>
-      <c r="AG18" s="73" t="s">
+      <c r="AG18" s="72" t="s">
         <v>185</v>
       </c>
-      <c r="AJ18" s="73" t="s">
+      <c r="AJ18" s="72" t="s">
         <v>343</v>
       </c>
     </row>
@@ -8332,7 +8332,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="56" spans="1:36" s="74" customFormat="1">
+    <row r="56" spans="1:36" s="73" customFormat="1">
       <c r="A56" s="67">
         <v>55</v>
       </c>
@@ -8401,25 +8401,25 @@
         <v>0.35</v>
       </c>
       <c r="X56" s="67"/>
-      <c r="Y56" s="73" t="s">
+      <c r="Y56" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="Z56" s="73" t="s">
+      <c r="Z56" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="AC56" s="74">
+      <c r="AC56" s="73">
         <v>7200</v>
       </c>
-      <c r="AD56" s="74">
+      <c r="AD56" s="73">
         <v>1.5</v>
       </c>
-      <c r="AE56" s="74">
+      <c r="AE56" s="73">
         <v>2</v>
       </c>
-      <c r="AG56" s="73" t="s">
+      <c r="AG56" s="72" t="s">
         <v>185</v>
       </c>
-      <c r="AJ56" s="73" t="s">
+      <c r="AJ56" s="72" t="s">
         <v>343</v>
       </c>
     </row>

--- a/config_Release/fish3d_config.xlsx
+++ b/config_Release/fish3d_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="428">
   <si>
     <t>line|行号</t>
   </si>
@@ -2498,11 +2498,20 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>饺子boss</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>by_iocn_jzy</t>
+    <t>金牛boss</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,19,20</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_8</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_9</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2627,7 +2636,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2674,7 +2683,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2874,6 +2883,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3179,16 +3191,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V22" sqref="V22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="9" width="19.25" customWidth="1"/>
+    <col min="3" max="5" width="19.25" customWidth="1"/>
+    <col min="6" max="6" width="19.25" style="67" customWidth="1"/>
+    <col min="7" max="9" width="19.25" customWidth="1"/>
     <col min="10" max="10" width="21.625" customWidth="1"/>
     <col min="11" max="11" width="17.875" customWidth="1"/>
     <col min="12" max="12" width="17.625" customWidth="1"/>
@@ -4815,96 +4829,96 @@
         <v>343</v>
       </c>
     </row>
-    <row r="18" spans="1:36" s="73" customFormat="1">
-      <c r="A18" s="67">
+    <row r="18" spans="1:36" s="74" customFormat="1">
+      <c r="A18" s="68">
         <v>17</v>
       </c>
-      <c r="B18" s="67">
+      <c r="B18" s="68">
         <v>17</v>
       </c>
-      <c r="C18" s="68" t="s">
+      <c r="C18" s="69" t="s">
         <v>157</v>
       </c>
-      <c r="D18" s="68" t="s">
+      <c r="D18" s="69" t="s">
         <v>213</v>
       </c>
-      <c r="E18" s="69" t="s">
+      <c r="E18" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="69" t="s">
+      <c r="F18" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="G18" s="68" t="s">
+      <c r="G18" s="69" t="s">
         <v>311</v>
       </c>
-      <c r="H18" s="68" t="s">
+      <c r="H18" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="I18" s="68">
+      <c r="I18" s="69">
         <v>1.53</v>
       </c>
-      <c r="J18" s="68">
+      <c r="J18" s="69">
         <v>1.48</v>
       </c>
-      <c r="K18" s="67">
+      <c r="K18" s="68">
         <v>0.8</v>
       </c>
-      <c r="L18" s="67">
+      <c r="L18" s="68">
         <v>30</v>
       </c>
-      <c r="M18" s="70">
-        <v>1</v>
-      </c>
-      <c r="N18" s="67">
+      <c r="M18" s="71">
+        <v>1</v>
+      </c>
+      <c r="N18" s="68">
         <v>40</v>
       </c>
-      <c r="O18" s="67">
+      <c r="O18" s="68">
         <v>4</v>
       </c>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="68">
+      <c r="P18" s="68"/>
+      <c r="Q18" s="69">
         <v>0.7</v>
       </c>
-      <c r="R18" s="71">
-        <v>1</v>
-      </c>
-      <c r="S18" s="71">
+      <c r="R18" s="72">
+        <v>1</v>
+      </c>
+      <c r="S18" s="72">
         <v>0.6</v>
       </c>
-      <c r="T18" s="68" t="s">
+      <c r="T18" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="U18" s="71">
-        <v>1.4</v>
-      </c>
-      <c r="V18" s="71">
-        <v>1</v>
-      </c>
-      <c r="W18" s="71">
+      <c r="U18" s="72">
+        <v>1.2</v>
+      </c>
+      <c r="V18" s="72">
+        <v>1</v>
+      </c>
+      <c r="W18" s="72">
         <v>0.35</v>
       </c>
-      <c r="X18" s="74" t="s">
+      <c r="X18" s="75" t="s">
         <v>395</v>
       </c>
-      <c r="Y18" s="72" t="s">
+      <c r="Y18" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="Z18" s="72" t="s">
+      <c r="Z18" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="AC18" s="73">
+      <c r="AC18" s="74">
         <v>7200</v>
       </c>
-      <c r="AD18" s="73">
+      <c r="AD18" s="74">
         <v>1.5</v>
       </c>
-      <c r="AE18" s="73">
+      <c r="AE18" s="74">
         <v>2</v>
       </c>
-      <c r="AG18" s="72" t="s">
+      <c r="AG18" s="73" t="s">
         <v>185</v>
       </c>
-      <c r="AJ18" s="72" t="s">
+      <c r="AJ18" s="73" t="s">
         <v>343</v>
       </c>
     </row>
@@ -8332,94 +8346,94 @@
         <v>343</v>
       </c>
     </row>
-    <row r="56" spans="1:36" s="73" customFormat="1">
-      <c r="A56" s="67">
+    <row r="56" spans="1:36" s="74" customFormat="1">
+      <c r="A56" s="68">
         <v>55</v>
       </c>
-      <c r="B56" s="67">
+      <c r="B56" s="68">
         <v>55</v>
       </c>
-      <c r="C56" s="68" t="s">
+      <c r="C56" s="69" t="s">
         <v>387</v>
       </c>
-      <c r="D56" s="68" t="s">
+      <c r="D56" s="69" t="s">
         <v>213</v>
       </c>
-      <c r="E56" s="69" t="s">
+      <c r="E56" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="F56" s="69" t="s">
+      <c r="F56" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="G56" s="68" t="s">
+      <c r="G56" s="69" t="s">
         <v>311</v>
       </c>
-      <c r="H56" s="68" t="s">
+      <c r="H56" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="I56" s="68">
+      <c r="I56" s="69">
         <v>1.53</v>
       </c>
-      <c r="J56" s="68">
+      <c r="J56" s="69">
         <v>1.48</v>
       </c>
-      <c r="K56" s="67">
+      <c r="K56" s="68">
         <v>0.8</v>
       </c>
-      <c r="L56" s="67">
+      <c r="L56" s="68">
         <v>30</v>
       </c>
-      <c r="M56" s="70">
-        <v>1</v>
-      </c>
-      <c r="N56" s="67">
+      <c r="M56" s="71">
+        <v>1</v>
+      </c>
+      <c r="N56" s="68">
         <v>40</v>
       </c>
-      <c r="O56" s="67">
+      <c r="O56" s="68">
         <v>4</v>
       </c>
-      <c r="P56" s="67"/>
-      <c r="Q56" s="68">
+      <c r="P56" s="68"/>
+      <c r="Q56" s="69">
         <v>0.7</v>
       </c>
-      <c r="R56" s="71">
-        <v>1</v>
-      </c>
-      <c r="S56" s="71">
+      <c r="R56" s="72">
+        <v>1</v>
+      </c>
+      <c r="S56" s="72">
         <v>0.6</v>
       </c>
-      <c r="T56" s="68" t="s">
+      <c r="T56" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="U56" s="71">
-        <v>1.2</v>
-      </c>
-      <c r="V56" s="71">
-        <v>1</v>
-      </c>
-      <c r="W56" s="71">
+      <c r="U56" s="72">
+        <v>1.4</v>
+      </c>
+      <c r="V56" s="72">
+        <v>1</v>
+      </c>
+      <c r="W56" s="72">
         <v>0.35</v>
       </c>
-      <c r="X56" s="67"/>
-      <c r="Y56" s="72" t="s">
+      <c r="X56" s="68"/>
+      <c r="Y56" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="Z56" s="72" t="s">
+      <c r="Z56" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="AC56" s="73">
+      <c r="AC56" s="74">
         <v>7200</v>
       </c>
-      <c r="AD56" s="73">
+      <c r="AD56" s="74">
         <v>1.5</v>
       </c>
-      <c r="AE56" s="73">
+      <c r="AE56" s="74">
         <v>2</v>
       </c>
-      <c r="AG56" s="72" t="s">
+      <c r="AG56" s="73" t="s">
         <v>185</v>
       </c>
-      <c r="AJ56" s="72" t="s">
+      <c r="AJ56" s="73" t="s">
         <v>343</v>
       </c>
     </row>
@@ -8857,16 +8871,16 @@
         <v>423</v>
       </c>
       <c r="D62" s="64" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E62" s="53" t="s">
         <v>424</v>
       </c>
       <c r="F62" s="64" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G62" s="64" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="H62" s="53" t="s">
         <v>218</v>
@@ -8912,6 +8926,9 @@
       </c>
       <c r="W62" s="55">
         <v>0.1</v>
+      </c>
+      <c r="X62" s="65" t="s">
+        <v>425</v>
       </c>
       <c r="Y62" s="66" t="s">
         <v>342</v>

--- a/config_Release/fish3d_config.xlsx
+++ b/config_Release/fish3d_config.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="429">
   <si>
     <t>line|行号</t>
   </si>
@@ -2507,6 +2507,10 @@
   </si>
   <si>
     <t>act_ty_by_drop_8</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_9</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -3192,8 +3196,8 @@
   <dimension ref="A1:AJ64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8877,7 +8881,7 @@
         <v>424</v>
       </c>
       <c r="F62" s="64" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G62" s="64" t="s">
         <v>427</v>

--- a/config_Release/fish3d_config.xlsx
+++ b/config_Release/fish3d_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.12\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2498,10 +2498,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>金牛boss</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>18,19,20</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2515,6 +2511,10 @@
   </si>
   <si>
     <t>act_ty_by_drop_9</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>小丑boss</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3197,7 +3197,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F62" sqref="F62"/>
+      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8875,16 +8875,16 @@
         <v>423</v>
       </c>
       <c r="D62" s="64" t="s">
+        <v>425</v>
+      </c>
+      <c r="E62" s="53" t="s">
+        <v>428</v>
+      </c>
+      <c r="F62" s="64" t="s">
+        <v>427</v>
+      </c>
+      <c r="G62" s="64" t="s">
         <v>426</v>
-      </c>
-      <c r="E62" s="53" t="s">
-        <v>424</v>
-      </c>
-      <c r="F62" s="64" t="s">
-        <v>428</v>
-      </c>
-      <c r="G62" s="64" t="s">
-        <v>427</v>
       </c>
       <c r="H62" s="53" t="s">
         <v>218</v>
@@ -8932,7 +8932,7 @@
         <v>0.1</v>
       </c>
       <c r="X62" s="65" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="Y62" s="66" t="s">
         <v>342</v>

--- a/config_Release/fish3d_config.xlsx
+++ b/config_Release/fish3d_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.26\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2494,10 +2494,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Fish3D091</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>18,19,20</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2514,7 +2510,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>小丑boss</t>
+    <t>Fish_Act</t>
+  </si>
+  <si>
+    <t>活动boss</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2687,7 +2686,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2915,6 +2914,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -8871,20 +8873,20 @@
       <c r="B62" s="52">
         <v>61</v>
       </c>
-      <c r="C62" s="53" t="s">
-        <v>423</v>
+      <c r="C62" s="76" t="s">
+        <v>427</v>
       </c>
       <c r="D62" s="64" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E62" s="53" t="s">
         <v>428</v>
       </c>
       <c r="F62" s="64" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G62" s="64" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H62" s="53" t="s">
         <v>218</v>
@@ -8932,7 +8934,7 @@
         <v>0.1</v>
       </c>
       <c r="X62" s="65" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Y62" s="66" t="s">
         <v>342</v>

--- a/config_Release/fish3d_config.xlsx
+++ b/config_Release/fish3d_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.26\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_2.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="434">
   <si>
     <t>line|行号</t>
   </si>
@@ -2514,6 +2514,26 @@
   </si>
   <si>
     <t>活动boss</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3DHB</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_iocn_hby</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_hby</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_iocn_hby</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包鱼</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3199,7 +3219,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
+      <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8952,8 +8972,88 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="63" spans="1:36">
-      <c r="E63" s="13"/>
+    <row r="63" spans="1:36" s="54" customFormat="1">
+      <c r="A63" s="12">
+        <v>62</v>
+      </c>
+      <c r="B63" s="12">
+        <v>62</v>
+      </c>
+      <c r="C63" s="53" t="s">
+        <v>429</v>
+      </c>
+      <c r="D63" s="53" t="s">
+        <v>430</v>
+      </c>
+      <c r="E63" s="53" t="s">
+        <v>433</v>
+      </c>
+      <c r="F63" s="53" t="s">
+        <v>431</v>
+      </c>
+      <c r="G63" s="53" t="s">
+        <v>432</v>
+      </c>
+      <c r="H63" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="I63" s="53">
+        <v>2.64</v>
+      </c>
+      <c r="J63" s="53">
+        <v>2.38</v>
+      </c>
+      <c r="K63" s="52">
+        <v>1</v>
+      </c>
+      <c r="L63" s="52">
+        <v>30</v>
+      </c>
+      <c r="M63" s="53">
+        <v>1</v>
+      </c>
+      <c r="N63" s="52">
+        <v>0</v>
+      </c>
+      <c r="O63" s="52">
+        <v>4</v>
+      </c>
+      <c r="Q63" s="53">
+        <v>0.64</v>
+      </c>
+      <c r="R63" s="55">
+        <v>0.73</v>
+      </c>
+      <c r="S63" s="55">
+        <v>0.74</v>
+      </c>
+      <c r="T63" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="U63" s="55">
+        <v>1</v>
+      </c>
+      <c r="V63" s="55">
+        <v>0.8</v>
+      </c>
+      <c r="W63" s="55">
+        <v>0.1</v>
+      </c>
+      <c r="Y63" s="56" t="s">
+        <v>342</v>
+      </c>
+      <c r="Z63" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA63" s="57">
+        <v>1</v>
+      </c>
+      <c r="AC63" s="57">
+        <v>1000</v>
+      </c>
+      <c r="AD63" s="57">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="64" spans="1:36">
       <c r="E64" s="13"/>

--- a/config_Release/fish3d_config.xlsx
+++ b/config_Release/fish3d_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_2.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3218,8 +3218,8 @@
   <dimension ref="A1:AJ64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5357,7 +5357,7 @@
         <v>1</v>
       </c>
       <c r="N23" s="3">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="O23" s="3">
         <v>3</v>
@@ -5450,7 +5450,7 @@
         <v>1</v>
       </c>
       <c r="N24" s="3">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="O24" s="3">
         <v>1</v>
@@ -5543,7 +5543,7 @@
         <v>1</v>
       </c>
       <c r="N25" s="3">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="O25" s="3">
         <v>1</v>
@@ -5633,7 +5633,7 @@
         <v>1</v>
       </c>
       <c r="N26" s="22">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O26" s="22">
         <v>2</v>
@@ -5724,7 +5724,7 @@
         <v>1</v>
       </c>
       <c r="N27" s="22">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="O27" s="22">
         <v>4</v>
@@ -5821,7 +5821,7 @@
         <v>1</v>
       </c>
       <c r="N28" s="22">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="O28" s="22">
         <v>4</v>

--- a/config_Release/fish3d_config.xlsx
+++ b/config_Release/fish3d_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="434">
   <si>
     <t>line|行号</t>
   </si>
@@ -2706,7 +2706,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2803,20 +2803,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2840,24 +2831,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2932,11 +2905,20 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3215,11 +3197,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ64"/>
+  <dimension ref="A1:AJ69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3227,7 +3209,7 @@
     <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
     <col min="3" max="5" width="19.25" customWidth="1"/>
-    <col min="6" max="6" width="19.25" style="67" customWidth="1"/>
+    <col min="6" max="6" width="19.25" style="58" customWidth="1"/>
     <col min="7" max="9" width="19.25" customWidth="1"/>
     <col min="10" max="10" width="21.625" customWidth="1"/>
     <col min="11" max="11" width="17.875" customWidth="1"/>
@@ -3431,7 +3413,7 @@
       <c r="W2" s="7">
         <v>1</v>
       </c>
-      <c r="X2" s="51" t="s">
+      <c r="X2" s="42" t="s">
         <v>398</v>
       </c>
       <c r="Y2" s="8" t="s">
@@ -3524,7 +3506,7 @@
       <c r="W3" s="7">
         <v>0.8</v>
       </c>
-      <c r="X3" s="51" t="s">
+      <c r="X3" s="42" t="s">
         <v>398</v>
       </c>
       <c r="Y3" s="8" t="s">
@@ -3614,7 +3596,7 @@
       <c r="W4" s="7">
         <v>0.35</v>
       </c>
-      <c r="X4" s="51" t="s">
+      <c r="X4" s="42" t="s">
         <v>399</v>
       </c>
       <c r="Y4" s="8" t="s">
@@ -3707,7 +3689,7 @@
       <c r="W5" s="7">
         <v>0.6</v>
       </c>
-      <c r="X5" s="51" t="s">
+      <c r="X5" s="42" t="s">
         <v>400</v>
       </c>
       <c r="Y5" s="8" t="s">
@@ -3797,7 +3779,7 @@
       <c r="W6" s="7">
         <v>0.5</v>
       </c>
-      <c r="X6" s="51" t="s">
+      <c r="X6" s="42" t="s">
         <v>399</v>
       </c>
       <c r="Y6" s="8" t="s">
@@ -3887,7 +3869,7 @@
       <c r="W7" s="7">
         <v>0.4</v>
       </c>
-      <c r="X7" s="51" t="s">
+      <c r="X7" s="42" t="s">
         <v>399</v>
       </c>
       <c r="Y7" s="8" t="s">
@@ -3980,7 +3962,7 @@
       <c r="W8" s="7">
         <v>0.35</v>
       </c>
-      <c r="X8" s="51" t="s">
+      <c r="X8" s="42" t="s">
         <v>399</v>
       </c>
       <c r="Y8" s="8" t="s">
@@ -4071,7 +4053,7 @@
       <c r="W9" s="7">
         <v>0.4</v>
       </c>
-      <c r="X9" s="51" t="s">
+      <c r="X9" s="42" t="s">
         <v>400</v>
       </c>
       <c r="Y9" s="8" t="s">
@@ -4165,7 +4147,7 @@
       <c r="W10" s="7">
         <v>0.45</v>
       </c>
-      <c r="X10" s="51" t="s">
+      <c r="X10" s="42" t="s">
         <v>400</v>
       </c>
       <c r="Y10" s="10" t="s">
@@ -4262,7 +4244,7 @@
       <c r="W11" s="7">
         <v>0.5</v>
       </c>
-      <c r="X11" s="51" t="s">
+      <c r="X11" s="42" t="s">
         <v>400</v>
       </c>
       <c r="Y11" s="8" t="s">
@@ -4356,7 +4338,7 @@
       <c r="W12" s="7">
         <v>0.35</v>
       </c>
-      <c r="X12" s="51" t="s">
+      <c r="X12" s="42" t="s">
         <v>401</v>
       </c>
       <c r="Y12" s="8" t="s">
@@ -4450,7 +4432,7 @@
       <c r="W13" s="7">
         <v>0.35</v>
       </c>
-      <c r="X13" s="51" t="s">
+      <c r="X13" s="42" t="s">
         <v>399</v>
       </c>
       <c r="Y13" s="8" t="s">
@@ -4544,7 +4526,7 @@
       <c r="W14" s="7">
         <v>0.35</v>
       </c>
-      <c r="X14" s="51" t="s">
+      <c r="X14" s="42" t="s">
         <v>402</v>
       </c>
       <c r="Y14" s="8" t="s">
@@ -4641,7 +4623,7 @@
       <c r="W15" s="7">
         <v>0.4</v>
       </c>
-      <c r="X15" s="51" t="s">
+      <c r="X15" s="42" t="s">
         <v>394</v>
       </c>
       <c r="Y15" s="8" t="s">
@@ -4737,7 +4719,7 @@
       <c r="W16" s="7">
         <v>0.35</v>
       </c>
-      <c r="X16" s="51" t="s">
+      <c r="X16" s="42" t="s">
         <v>395</v>
       </c>
       <c r="Y16" s="8" t="s">
@@ -4830,7 +4812,7 @@
       <c r="W17" s="7">
         <v>0.5</v>
       </c>
-      <c r="X17" s="51" t="s">
+      <c r="X17" s="42" t="s">
         <v>396</v>
       </c>
       <c r="Y17" s="8" t="s">
@@ -4855,374 +4837,374 @@
         <v>343</v>
       </c>
     </row>
-    <row r="18" spans="1:36" s="74" customFormat="1">
-      <c r="A18" s="68">
+    <row r="18" spans="1:36" s="9" customFormat="1">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="68">
+      <c r="B18" s="3">
         <v>17</v>
       </c>
-      <c r="C18" s="69" t="s">
+      <c r="C18" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D18" s="69" t="s">
+      <c r="D18" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="E18" s="70" t="s">
+      <c r="E18" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="70" t="s">
+      <c r="F18" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G18" s="69" t="s">
+      <c r="G18" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="H18" s="69" t="s">
+      <c r="H18" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="I18" s="69">
+      <c r="I18" s="5">
         <v>1.53</v>
       </c>
-      <c r="J18" s="69">
+      <c r="J18" s="5">
         <v>1.48</v>
       </c>
-      <c r="K18" s="68">
+      <c r="K18" s="3">
         <v>0.8</v>
       </c>
-      <c r="L18" s="68">
+      <c r="L18" s="3">
         <v>30</v>
       </c>
-      <c r="M18" s="71">
-        <v>1</v>
-      </c>
-      <c r="N18" s="68">
+      <c r="M18" s="6">
+        <v>1</v>
+      </c>
+      <c r="N18" s="3">
         <v>40</v>
       </c>
-      <c r="O18" s="68">
+      <c r="O18" s="3">
         <v>4</v>
       </c>
-      <c r="P18" s="68"/>
-      <c r="Q18" s="69">
+      <c r="P18" s="3"/>
+      <c r="Q18" s="5">
         <v>0.7</v>
       </c>
-      <c r="R18" s="72">
-        <v>1</v>
-      </c>
-      <c r="S18" s="72">
+      <c r="R18" s="7">
+        <v>1</v>
+      </c>
+      <c r="S18" s="7">
         <v>0.6</v>
       </c>
-      <c r="T18" s="69" t="s">
+      <c r="T18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="U18" s="72">
+      <c r="U18" s="7">
         <v>1.2</v>
       </c>
-      <c r="V18" s="72">
-        <v>1</v>
-      </c>
-      <c r="W18" s="72">
+      <c r="V18" s="7">
+        <v>1</v>
+      </c>
+      <c r="W18" s="7">
         <v>0.35</v>
       </c>
-      <c r="X18" s="75" t="s">
+      <c r="X18" s="42" t="s">
         <v>395</v>
       </c>
-      <c r="Y18" s="73" t="s">
+      <c r="Y18" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="Z18" s="73" t="s">
+      <c r="Z18" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AC18" s="74">
+      <c r="AC18" s="9">
         <v>7200</v>
       </c>
-      <c r="AD18" s="74">
+      <c r="AD18" s="9">
         <v>1.5</v>
       </c>
-      <c r="AE18" s="74">
+      <c r="AE18" s="9">
         <v>2</v>
       </c>
-      <c r="AG18" s="73" t="s">
+      <c r="AG18" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="AJ18" s="73" t="s">
+      <c r="AJ18" s="8" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="19" spans="1:36" s="28" customFormat="1">
-      <c r="A19" s="22">
+    <row r="19" spans="1:36" s="9" customFormat="1">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="3">
         <v>18</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="F19" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="H19" s="23" t="s">
+      <c r="H19" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="5">
         <v>0.66</v>
       </c>
-      <c r="J19" s="23">
+      <c r="J19" s="5">
         <v>0.89</v>
       </c>
-      <c r="K19" s="22">
+      <c r="K19" s="3">
         <v>1.5</v>
       </c>
-      <c r="L19" s="22">
+      <c r="L19" s="3">
         <v>30</v>
       </c>
-      <c r="M19" s="25">
-        <v>1</v>
-      </c>
-      <c r="N19" s="22">
+      <c r="M19" s="6">
+        <v>1</v>
+      </c>
+      <c r="N19" s="3">
         <v>60</v>
       </c>
-      <c r="O19" s="22">
+      <c r="O19" s="3">
         <v>4</v>
       </c>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="23">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="5">
         <v>0.8</v>
       </c>
-      <c r="R19" s="26">
-        <v>1</v>
-      </c>
-      <c r="S19" s="26">
+      <c r="R19" s="7">
+        <v>1</v>
+      </c>
+      <c r="S19" s="7">
         <v>0.74</v>
       </c>
-      <c r="T19" s="23" t="s">
+      <c r="T19" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="U19" s="26">
+      <c r="U19" s="7">
         <v>0.7</v>
       </c>
-      <c r="V19" s="26">
-        <v>1</v>
-      </c>
-      <c r="W19" s="26">
+      <c r="V19" s="7">
+        <v>1</v>
+      </c>
+      <c r="W19" s="7">
         <v>0.35</v>
       </c>
-      <c r="X19" s="51" t="s">
+      <c r="X19" s="42" t="s">
         <v>395</v>
       </c>
-      <c r="Y19" s="27" t="s">
+      <c r="Y19" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="Z19" s="27" t="s">
+      <c r="Z19" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AC19" s="28">
+      <c r="AC19" s="9">
         <v>7100</v>
       </c>
-      <c r="AD19" s="28">
+      <c r="AD19" s="9">
         <v>1.5</v>
       </c>
-      <c r="AE19" s="28">
+      <c r="AE19" s="9">
         <v>2</v>
       </c>
-      <c r="AG19" s="27" t="s">
+      <c r="AG19" s="8" t="s">
         <v>168</v>
       </c>
       <c r="AJ19" s="8" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="20" spans="1:36" s="28" customFormat="1">
-      <c r="A20" s="22">
+    <row r="20" spans="1:36" s="9" customFormat="1">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="22">
+      <c r="B20" s="3">
         <v>19</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="G20" s="23" t="s">
+      <c r="G20" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="H20" s="23" t="s">
+      <c r="H20" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I20" s="5">
         <v>2.2799999999999998</v>
       </c>
-      <c r="J20" s="23">
+      <c r="J20" s="5">
         <v>3.46</v>
       </c>
-      <c r="K20" s="22">
+      <c r="K20" s="3">
         <v>1.5</v>
       </c>
-      <c r="L20" s="22">
+      <c r="L20" s="3">
         <v>30</v>
       </c>
-      <c r="M20" s="25">
-        <v>1</v>
-      </c>
-      <c r="N20" s="22">
+      <c r="M20" s="6">
+        <v>1</v>
+      </c>
+      <c r="N20" s="3">
         <v>60</v>
       </c>
-      <c r="O20" s="22">
+      <c r="O20" s="3">
         <v>4</v>
       </c>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="23">
+      <c r="P20" s="3"/>
+      <c r="Q20" s="5">
         <v>0.7</v>
       </c>
-      <c r="R20" s="26">
-        <v>1</v>
-      </c>
-      <c r="S20" s="26">
+      <c r="R20" s="7">
+        <v>1</v>
+      </c>
+      <c r="S20" s="7">
         <v>0.74</v>
       </c>
-      <c r="T20" s="23" t="s">
+      <c r="T20" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="U20" s="26">
-        <v>1</v>
-      </c>
-      <c r="V20" s="26">
-        <v>1</v>
-      </c>
-      <c r="W20" s="26">
+      <c r="U20" s="7">
+        <v>1</v>
+      </c>
+      <c r="V20" s="7">
+        <v>1</v>
+      </c>
+      <c r="W20" s="7">
         <v>0.35</v>
       </c>
-      <c r="X20" s="31" t="s">
+      <c r="X20" s="42" t="s">
         <v>403</v>
       </c>
-      <c r="Y20" s="27" t="s">
+      <c r="Y20" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="Z20" s="27" t="s">
+      <c r="Z20" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AC20" s="28">
+      <c r="AC20" s="9">
         <v>7000</v>
       </c>
-      <c r="AD20" s="28">
+      <c r="AD20" s="9">
         <v>2</v>
       </c>
-      <c r="AE20" s="28">
-        <v>1</v>
-      </c>
-      <c r="AJ20" s="27" t="s">
+      <c r="AE20" s="9">
+        <v>1</v>
+      </c>
+      <c r="AJ20" s="8" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="21" spans="1:36" s="9" customFormat="1">
-      <c r="A21" s="3">
+    <row r="21" spans="1:36" s="28" customFormat="1">
+      <c r="A21" s="22">
         <v>20</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="22">
         <v>20</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="23">
         <v>2.72</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="23">
         <v>2.62</v>
       </c>
-      <c r="K21" s="3">
-        <v>1</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="K21" s="22">
+        <v>1</v>
+      </c>
+      <c r="L21" s="22">
         <v>30</v>
       </c>
-      <c r="M21" s="6">
-        <v>1</v>
-      </c>
-      <c r="N21" s="3">
-        <v>80</v>
-      </c>
-      <c r="O21" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="5">
+      <c r="M21" s="25">
+        <v>1</v>
+      </c>
+      <c r="N21" s="22">
+        <v>120</v>
+      </c>
+      <c r="O21" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="23">
         <v>0.8</v>
       </c>
-      <c r="R21" s="7">
-        <v>1</v>
-      </c>
-      <c r="S21" s="7">
+      <c r="R21" s="26">
+        <v>1</v>
+      </c>
+      <c r="S21" s="26">
         <v>0.74</v>
       </c>
-      <c r="T21" s="5" t="s">
+      <c r="T21" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="U21" s="7">
-        <v>1</v>
-      </c>
-      <c r="V21" s="7">
-        <v>1</v>
-      </c>
-      <c r="W21" s="7">
+      <c r="U21" s="26">
+        <v>1</v>
+      </c>
+      <c r="V21" s="26">
+        <v>1</v>
+      </c>
+      <c r="W21" s="26">
         <v>0.35</v>
       </c>
-      <c r="X21" s="51" t="s">
+      <c r="X21" s="31" t="s">
         <v>404</v>
       </c>
-      <c r="Y21" s="8" t="s">
+      <c r="Y21" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="Z21" s="8" t="s">
+      <c r="Z21" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="AC21" s="9">
+      <c r="AC21" s="28">
         <v>6500</v>
       </c>
-      <c r="AD21" s="9">
+      <c r="AD21" s="28">
         <v>2</v>
       </c>
-      <c r="AE21" s="9">
-        <v>1</v>
-      </c>
-      <c r="AF21" s="8" t="s">
+      <c r="AE21" s="28">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="AG21" s="8" t="s">
+      <c r="AG21" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="AJ21" s="8" t="s">
+      <c r="AJ21" s="27" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5316,279 +5298,279 @@
         <v>347</v>
       </c>
     </row>
-    <row r="23" spans="1:36" s="9" customFormat="1">
-      <c r="A23" s="3">
+    <row r="23" spans="1:36" s="28" customFormat="1">
+      <c r="A23" s="22">
         <v>22</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="22">
         <v>22</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="23" t="s">
         <v>319</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="23" t="s">
         <v>319</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="H23" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="23">
         <v>1.29</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="23">
         <v>1.8</v>
       </c>
-      <c r="K23" s="3">
-        <v>1</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="K23" s="22">
+        <v>1</v>
+      </c>
+      <c r="L23" s="22">
         <v>30</v>
       </c>
-      <c r="M23" s="6">
-        <v>1</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="M23" s="25">
+        <v>1</v>
+      </c>
+      <c r="N23" s="22">
+        <v>120</v>
+      </c>
+      <c r="O23" s="22">
+        <v>3</v>
+      </c>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="R23" s="26">
+        <v>1</v>
+      </c>
+      <c r="S23" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="T23" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="U23" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="V23" s="26">
+        <v>1</v>
+      </c>
+      <c r="W23" s="26">
+        <v>0.35</v>
+      </c>
+      <c r="X23" s="31" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y23" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z23" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC23" s="28">
+        <v>6300</v>
+      </c>
+      <c r="AD23" s="28">
+        <v>2</v>
+      </c>
+      <c r="AE23" s="28">
+        <v>1</v>
+      </c>
+      <c r="AG23" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="AJ23" s="27" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" s="28" customFormat="1">
+      <c r="A24" s="22">
+        <v>23</v>
+      </c>
+      <c r="B24" s="22">
+        <v>23</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="H24" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="O23" s="3">
-        <v>3</v>
-      </c>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="5">
+      <c r="I24" s="23">
+        <v>0.94</v>
+      </c>
+      <c r="J24" s="23">
+        <v>1.9</v>
+      </c>
+      <c r="K24" s="22">
+        <v>1</v>
+      </c>
+      <c r="L24" s="22">
+        <v>30</v>
+      </c>
+      <c r="M24" s="25">
+        <v>1</v>
+      </c>
+      <c r="N24" s="22">
+        <v>120</v>
+      </c>
+      <c r="O24" s="22">
+        <v>1</v>
+      </c>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="23">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="R24" s="26">
+        <v>1</v>
+      </c>
+      <c r="S24" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="T24" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="U24" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="V24" s="26">
+        <v>1</v>
+      </c>
+      <c r="W24" s="26">
         <v>0.8</v>
       </c>
-      <c r="R23" s="7">
-        <v>1</v>
-      </c>
-      <c r="S23" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="T23" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="U23" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="V23" s="7">
-        <v>1</v>
-      </c>
-      <c r="W23" s="7">
-        <v>0.35</v>
-      </c>
-      <c r="X23" s="51" t="s">
-        <v>406</v>
-      </c>
-      <c r="Y23" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z23" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC23" s="9">
-        <v>6300</v>
-      </c>
-      <c r="AD23" s="9">
-        <v>2</v>
-      </c>
-      <c r="AE23" s="9">
-        <v>1</v>
-      </c>
-      <c r="AG23" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="AJ23" s="8" t="s">
-        <v>348</v>
+      <c r="X24" s="31" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y24" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z24" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC24" s="28">
+        <v>6200</v>
+      </c>
+      <c r="AD24" s="28">
+        <v>1.2</v>
+      </c>
+      <c r="AF24" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG24" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ24" s="27" t="s">
+        <v>349</v>
       </c>
     </row>
-    <row r="24" spans="1:36" s="9" customFormat="1">
-      <c r="A24" s="3">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3">
-        <v>23</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="H24" s="11" t="s">
+    <row r="25" spans="1:36" s="28" customFormat="1">
+      <c r="A25" s="22">
+        <v>24</v>
+      </c>
+      <c r="B25" s="22">
+        <v>24</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="H25" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="I24" s="5">
-        <v>0.94</v>
-      </c>
-      <c r="J24" s="5">
-        <v>1.9</v>
-      </c>
-      <c r="K24" s="3">
-        <v>1</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="I25" s="23">
+        <v>1</v>
+      </c>
+      <c r="J25" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="K25" s="22">
+        <v>1</v>
+      </c>
+      <c r="L25" s="22">
         <v>30</v>
       </c>
-      <c r="M24" s="6">
-        <v>1</v>
-      </c>
-      <c r="N24" s="3">
-        <v>120</v>
-      </c>
-      <c r="O24" s="3">
-        <v>1</v>
-      </c>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="5">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="R24" s="7">
-        <v>1</v>
-      </c>
-      <c r="S24" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="T24" s="4" t="s">
+      <c r="M25" s="25">
+        <v>1</v>
+      </c>
+      <c r="N25" s="22">
+        <v>50</v>
+      </c>
+      <c r="O25" s="22">
+        <v>1</v>
+      </c>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="R25" s="26">
+        <v>1</v>
+      </c>
+      <c r="S25" s="26">
+        <v>0.15</v>
+      </c>
+      <c r="T25" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="U24" s="7">
+      <c r="U25" s="26">
         <v>0.6</v>
       </c>
-      <c r="V24" s="7">
-        <v>1</v>
-      </c>
-      <c r="W24" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="X24" s="51" t="s">
+      <c r="V25" s="26">
+        <v>1</v>
+      </c>
+      <c r="W25" s="26">
+        <v>0.7</v>
+      </c>
+      <c r="X25" s="31" t="s">
         <v>407</v>
       </c>
-      <c r="Y24" s="8" t="s">
+      <c r="Y25" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="Z24" s="8" t="s">
+      <c r="Z25" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="AC24" s="9">
-        <v>6200</v>
-      </c>
-      <c r="AD24" s="9">
+      <c r="AC25" s="28">
+        <v>6100</v>
+      </c>
+      <c r="AD25" s="28">
         <v>1.2</v>
       </c>
-      <c r="AF24" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG24" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="AJ24" s="8" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="25" spans="1:36" s="9" customFormat="1">
-      <c r="A25" s="3">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3">
-        <v>24</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="I25" s="5">
-        <v>1</v>
-      </c>
-      <c r="J25" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="K25" s="3">
-        <v>1</v>
-      </c>
-      <c r="L25" s="3">
-        <v>30</v>
-      </c>
-      <c r="M25" s="6">
-        <v>1</v>
-      </c>
-      <c r="N25" s="3">
-        <v>50</v>
-      </c>
-      <c r="O25" s="3">
-        <v>1</v>
-      </c>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="R25" s="7">
-        <v>1</v>
-      </c>
-      <c r="S25" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="T25" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="U25" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="V25" s="7">
-        <v>1</v>
-      </c>
-      <c r="W25" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="X25" s="51" t="s">
-        <v>407</v>
-      </c>
-      <c r="Y25" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z25" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC25" s="9">
-        <v>6100</v>
-      </c>
-      <c r="AD25" s="9">
-        <v>1.2</v>
-      </c>
-      <c r="AG25" s="8" t="s">
+      <c r="AG25" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="AJ25" s="8" t="s">
+      <c r="AJ25" s="27" t="s">
         <v>350</v>
       </c>
     </row>
@@ -5633,7 +5615,7 @@
         <v>1</v>
       </c>
       <c r="N26" s="22">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="O26" s="22">
         <v>2</v>
@@ -5660,7 +5642,7 @@
       <c r="W26" s="26">
         <v>0.35</v>
       </c>
-      <c r="X26" s="51" t="s">
+      <c r="X26" s="31" t="s">
         <v>407</v>
       </c>
       <c r="Y26" s="27" t="s">
@@ -5679,7 +5661,7 @@
       <c r="AE26" s="28">
         <v>1</v>
       </c>
-      <c r="AJ26" s="8" t="s">
+      <c r="AJ26" s="27" t="s">
         <v>351</v>
       </c>
     </row>
@@ -5724,7 +5706,7 @@
         <v>1</v>
       </c>
       <c r="N27" s="22">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="O27" s="22">
         <v>4</v>
@@ -5751,7 +5733,7 @@
       <c r="W27" s="26">
         <v>0.35</v>
       </c>
-      <c r="X27" s="51" t="s">
+      <c r="X27" s="31" t="s">
         <v>407</v>
       </c>
       <c r="Y27" s="27" t="s">
@@ -5776,7 +5758,7 @@
       <c r="AG27" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="AJ27" s="8" t="s">
+      <c r="AJ27" s="27" t="s">
         <v>352</v>
       </c>
     </row>
@@ -5821,7 +5803,7 @@
         <v>1</v>
       </c>
       <c r="N28" s="22">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="O28" s="22">
         <v>4</v>
@@ -5871,1678 +5853,1678 @@
       <c r="AG28" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="AJ28" s="8" t="s">
+      <c r="AJ28" s="27" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="29" spans="1:36" s="28" customFormat="1">
-      <c r="A29" s="22">
+    <row r="29" spans="1:36" s="9" customFormat="1">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="22">
+      <c r="B29" s="3">
         <v>28</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="E29" s="31" t="s">
+      <c r="E29" s="42" t="s">
         <v>240</v>
       </c>
-      <c r="F29" s="29" t="s">
+      <c r="F29" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="G29" s="29" t="s">
+      <c r="G29" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="H29" s="23" t="s">
+      <c r="H29" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="I29" s="24">
+      <c r="I29" s="4">
         <v>2.1</v>
       </c>
-      <c r="J29" s="22">
+      <c r="J29" s="3">
         <v>0.8</v>
       </c>
-      <c r="K29" s="22">
+      <c r="K29" s="3">
         <v>0.8</v>
       </c>
-      <c r="L29" s="22">
+      <c r="L29" s="3">
         <v>30</v>
       </c>
-      <c r="M29" s="25">
-        <v>1</v>
-      </c>
-      <c r="N29" s="22">
+      <c r="M29" s="6">
+        <v>1</v>
+      </c>
+      <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="22">
+      <c r="O29" s="3">
         <v>4</v>
       </c>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="23">
+      <c r="P29" s="3"/>
+      <c r="Q29" s="5">
         <v>0.7</v>
       </c>
-      <c r="R29" s="26">
-        <v>1</v>
-      </c>
-      <c r="S29" s="26">
+      <c r="R29" s="7">
+        <v>1</v>
+      </c>
+      <c r="S29" s="7">
         <v>0.74</v>
       </c>
-      <c r="T29" s="23" t="s">
+      <c r="T29" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="U29" s="26">
-        <v>1</v>
-      </c>
-      <c r="V29" s="26">
-        <v>1</v>
-      </c>
-      <c r="W29" s="26">
+      <c r="U29" s="7">
+        <v>1</v>
+      </c>
+      <c r="V29" s="7">
+        <v>1</v>
+      </c>
+      <c r="W29" s="7">
         <v>0.35</v>
       </c>
-      <c r="X29" s="22"/>
-      <c r="Y29" s="27" t="s">
+      <c r="X29" s="3"/>
+      <c r="Y29" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="Z29" s="27" t="s">
+      <c r="Z29" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AB29" s="27"/>
-      <c r="AC29" s="28">
+      <c r="AB29" s="8"/>
+      <c r="AC29" s="9">
         <v>5000</v>
       </c>
-      <c r="AD29" s="28">
+      <c r="AD29" s="9">
         <v>2</v>
       </c>
-      <c r="AE29" s="28">
-        <v>1</v>
-      </c>
-      <c r="AG29" s="27" t="s">
+      <c r="AE29" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG29" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="AJ29" s="27" t="s">
+      <c r="AJ29" s="8" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="30" spans="1:36" s="28" customFormat="1">
-      <c r="A30" s="22">
+    <row r="30" spans="1:36" s="9" customFormat="1">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="22">
+      <c r="B30" s="3">
         <v>29</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="E30" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="23" t="s">
+      <c r="F30" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="G30" s="23" t="s">
+      <c r="G30" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="H30" s="23" t="s">
+      <c r="H30" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="I30" s="23">
+      <c r="I30" s="5">
         <v>1.68</v>
       </c>
-      <c r="J30" s="23">
+      <c r="J30" s="5">
         <v>2.84</v>
       </c>
-      <c r="K30" s="22">
+      <c r="K30" s="3">
         <v>0.8</v>
       </c>
-      <c r="L30" s="22">
+      <c r="L30" s="3">
         <v>30</v>
       </c>
-      <c r="M30" s="25">
-        <v>1</v>
-      </c>
-      <c r="N30" s="22">
+      <c r="M30" s="6">
+        <v>1</v>
+      </c>
+      <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="22">
+      <c r="O30" s="3">
         <v>3</v>
       </c>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="23">
+      <c r="P30" s="42"/>
+      <c r="Q30" s="5">
         <v>0.7</v>
       </c>
-      <c r="R30" s="26">
-        <v>1</v>
-      </c>
-      <c r="S30" s="26">
+      <c r="R30" s="7">
+        <v>1</v>
+      </c>
+      <c r="S30" s="7">
         <v>0.74</v>
       </c>
-      <c r="T30" s="23" t="s">
+      <c r="T30" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="U30" s="26">
-        <v>1</v>
-      </c>
-      <c r="V30" s="26">
-        <v>1</v>
-      </c>
-      <c r="W30" s="26">
+      <c r="U30" s="7">
+        <v>1</v>
+      </c>
+      <c r="V30" s="7">
+        <v>1</v>
+      </c>
+      <c r="W30" s="7">
         <v>0.35</v>
       </c>
-      <c r="X30" s="31" t="s">
+      <c r="X30" s="42" t="s">
         <v>408</v>
       </c>
-      <c r="Y30" s="27" t="s">
+      <c r="Y30" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="Z30" s="27" t="s">
+      <c r="Z30" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AA30" s="28">
-        <v>1</v>
-      </c>
-      <c r="AC30" s="28">
+      <c r="AA30" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC30" s="9">
         <v>9200</v>
       </c>
-      <c r="AD30" s="28">
+      <c r="AD30" s="9">
         <v>2</v>
       </c>
-      <c r="AH30" s="27" t="s">
+      <c r="AH30" s="8" t="s">
         <v>194</v>
       </c>
       <c r="AJ30" s="8" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="31" spans="1:36" s="28" customFormat="1">
-      <c r="A31" s="22">
+    <row r="31" spans="1:36" s="9" customFormat="1">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="22">
+      <c r="B31" s="3">
         <v>30</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="E31" s="23" t="s">
+      <c r="E31" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F31" s="29" t="s">
+      <c r="F31" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="G31" s="29" t="s">
+      <c r="G31" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="H31" s="23" t="s">
+      <c r="H31" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="I31" s="24">
+      <c r="I31" s="4">
         <v>1.48</v>
       </c>
-      <c r="J31" s="22">
+      <c r="J31" s="3">
         <v>2.77</v>
       </c>
-      <c r="K31" s="22">
+      <c r="K31" s="3">
         <v>0.8</v>
       </c>
-      <c r="L31" s="22">
+      <c r="L31" s="3">
         <v>30</v>
       </c>
-      <c r="M31" s="25">
-        <v>1</v>
-      </c>
-      <c r="N31" s="22">
+      <c r="M31" s="6">
+        <v>1</v>
+      </c>
+      <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="22">
+      <c r="O31" s="3">
         <v>4</v>
       </c>
-      <c r="Q31" s="23">
+      <c r="Q31" s="5">
         <v>0.7</v>
       </c>
-      <c r="R31" s="26">
-        <v>1</v>
-      </c>
-      <c r="S31" s="26">
+      <c r="R31" s="7">
+        <v>1</v>
+      </c>
+      <c r="S31" s="7">
         <v>0.74</v>
       </c>
-      <c r="T31" s="23" t="s">
+      <c r="T31" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="U31" s="26">
-        <v>1</v>
-      </c>
-      <c r="V31" s="26">
-        <v>1</v>
-      </c>
-      <c r="W31" s="26">
+      <c r="U31" s="7">
+        <v>1</v>
+      </c>
+      <c r="V31" s="7">
+        <v>1</v>
+      </c>
+      <c r="W31" s="7">
         <v>0.35</v>
       </c>
-      <c r="X31" s="31" t="s">
+      <c r="X31" s="42" t="s">
         <v>409</v>
       </c>
-      <c r="Y31" s="27" t="s">
+      <c r="Y31" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="Z31" s="27" t="s">
+      <c r="Z31" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AA31" s="28">
-        <v>1</v>
-      </c>
-      <c r="AB31" s="27"/>
-      <c r="AC31" s="28">
+      <c r="AA31" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="9">
         <v>9200</v>
       </c>
-      <c r="AD31" s="28">
+      <c r="AD31" s="9">
         <v>2</v>
       </c>
-      <c r="AH31" s="27" t="s">
+      <c r="AH31" s="8" t="s">
         <v>193</v>
       </c>
       <c r="AJ31" s="8" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="32" spans="1:36" s="28" customFormat="1">
-      <c r="A32" s="22">
+    <row r="32" spans="1:36" s="9" customFormat="1">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="22">
+      <c r="B32" s="3">
         <v>31</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="E32" s="23" t="s">
+      <c r="E32" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="F32" s="29" t="s">
+      <c r="F32" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="G32" s="29" t="s">
+      <c r="G32" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="H32" s="23" t="s">
+      <c r="H32" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="I32" s="24">
+      <c r="I32" s="4">
         <v>1.48</v>
       </c>
-      <c r="J32" s="22">
+      <c r="J32" s="3">
         <v>1.96</v>
       </c>
-      <c r="K32" s="22">
+      <c r="K32" s="3">
         <v>0.8</v>
       </c>
-      <c r="L32" s="22">
+      <c r="L32" s="3">
         <v>30</v>
       </c>
-      <c r="M32" s="25">
-        <v>1</v>
-      </c>
-      <c r="N32" s="22">
+      <c r="M32" s="6">
+        <v>1</v>
+      </c>
+      <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="22">
+      <c r="O32" s="3">
         <v>4</v>
       </c>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="23">
+      <c r="P32" s="3"/>
+      <c r="Q32" s="5">
         <v>0.7</v>
       </c>
-      <c r="R32" s="26">
-        <v>1</v>
-      </c>
-      <c r="S32" s="26">
+      <c r="R32" s="7">
+        <v>1</v>
+      </c>
+      <c r="S32" s="7">
         <v>0.74</v>
       </c>
-      <c r="T32" s="23" t="s">
+      <c r="T32" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="U32" s="26">
-        <v>1</v>
-      </c>
-      <c r="V32" s="26">
-        <v>1</v>
-      </c>
-      <c r="W32" s="26">
+      <c r="U32" s="7">
+        <v>1</v>
+      </c>
+      <c r="V32" s="7">
+        <v>1</v>
+      </c>
+      <c r="W32" s="7">
         <v>0.35</v>
       </c>
-      <c r="X32" s="31" t="s">
+      <c r="X32" s="42" t="s">
         <v>410</v>
       </c>
-      <c r="Y32" s="27" t="s">
+      <c r="Y32" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="Z32" s="27" t="s">
+      <c r="Z32" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AA32" s="28">
-        <v>1</v>
-      </c>
-      <c r="AB32" s="27"/>
-      <c r="AC32" s="28">
+      <c r="AA32" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="9">
         <v>9200</v>
       </c>
-      <c r="AD32" s="28">
+      <c r="AD32" s="9">
         <v>2</v>
       </c>
-      <c r="AE32" s="28">
-        <v>1</v>
-      </c>
-      <c r="AH32" s="27" t="s">
+      <c r="AE32" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH32" s="8" t="s">
         <v>194</v>
       </c>
       <c r="AJ32" s="8" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="33" spans="1:36" s="28" customFormat="1">
-      <c r="A33" s="22">
+    <row r="33" spans="1:36" s="9" customFormat="1">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="22">
+      <c r="B33" s="3">
         <v>32</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="E33" s="23" t="s">
+      <c r="E33" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="F33" s="29" t="s">
+      <c r="F33" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="G33" s="29" t="s">
+      <c r="G33" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="H33" s="23" t="s">
+      <c r="H33" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="I33" s="23">
+      <c r="I33" s="5">
         <v>1.56</v>
       </c>
-      <c r="J33" s="23">
+      <c r="J33" s="5">
         <v>2.27</v>
       </c>
-      <c r="K33" s="22">
+      <c r="K33" s="3">
         <v>0.8</v>
       </c>
-      <c r="L33" s="22">
+      <c r="L33" s="3">
         <v>30</v>
       </c>
-      <c r="M33" s="25">
-        <v>1</v>
-      </c>
-      <c r="N33" s="22">
+      <c r="M33" s="6">
+        <v>1</v>
+      </c>
+      <c r="N33" s="3">
         <v>0</v>
       </c>
-      <c r="O33" s="22">
+      <c r="O33" s="3">
         <v>4</v>
       </c>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="23">
+      <c r="P33" s="42"/>
+      <c r="Q33" s="5">
         <v>0.89999999999999991</v>
       </c>
-      <c r="R33" s="26">
-        <v>1</v>
-      </c>
-      <c r="S33" s="26">
+      <c r="R33" s="7">
+        <v>1</v>
+      </c>
+      <c r="S33" s="7">
         <v>0.74</v>
       </c>
-      <c r="T33" s="23" t="s">
+      <c r="T33" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="U33" s="26">
-        <v>1</v>
-      </c>
-      <c r="V33" s="26">
-        <v>1</v>
-      </c>
-      <c r="W33" s="26">
+      <c r="U33" s="7">
+        <v>1</v>
+      </c>
+      <c r="V33" s="7">
+        <v>1</v>
+      </c>
+      <c r="W33" s="7">
         <v>0.35</v>
       </c>
-      <c r="X33" s="22"/>
-      <c r="Y33" s="27" t="s">
+      <c r="X33" s="3"/>
+      <c r="Y33" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="Z33" s="27" t="s">
+      <c r="Z33" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AB33" s="27"/>
-      <c r="AC33" s="28">
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="9">
         <v>4600</v>
       </c>
-      <c r="AD33" s="28">
+      <c r="AD33" s="9">
         <v>2</v>
       </c>
-      <c r="AE33" s="28">
-        <v>1</v>
-      </c>
-      <c r="AI33" s="32"/>
+      <c r="AE33" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI33" s="68"/>
       <c r="AJ33" s="8" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="34" spans="1:36" s="28" customFormat="1">
-      <c r="A34" s="22">
+    <row r="34" spans="1:36" s="9" customFormat="1">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="22">
+      <c r="B34" s="3">
         <v>33</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="E34" s="23" t="s">
+      <c r="E34" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="F34" s="23" t="s">
+      <c r="F34" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="G34" s="23" t="s">
+      <c r="G34" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="H34" s="23" t="s">
+      <c r="H34" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="I34" s="23">
+      <c r="I34" s="5">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J34" s="23">
+      <c r="J34" s="5">
         <v>3</v>
       </c>
-      <c r="K34" s="22">
+      <c r="K34" s="3">
         <v>0.8</v>
       </c>
-      <c r="L34" s="22">
+      <c r="L34" s="3">
         <v>30</v>
       </c>
-      <c r="M34" s="25">
-        <v>1</v>
-      </c>
-      <c r="N34" s="22">
+      <c r="M34" s="6">
+        <v>1</v>
+      </c>
+      <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="22">
-        <v>1</v>
-      </c>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="23">
+      <c r="O34" s="3">
+        <v>1</v>
+      </c>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="5">
         <v>0.7</v>
       </c>
-      <c r="R34" s="26">
-        <v>1</v>
-      </c>
-      <c r="S34" s="26">
+      <c r="R34" s="7">
+        <v>1</v>
+      </c>
+      <c r="S34" s="7">
         <v>0.74</v>
       </c>
-      <c r="T34" s="23" t="s">
+      <c r="T34" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="U34" s="26">
-        <v>1</v>
-      </c>
-      <c r="V34" s="26">
-        <v>1</v>
-      </c>
-      <c r="W34" s="26">
+      <c r="U34" s="7">
+        <v>1</v>
+      </c>
+      <c r="V34" s="7">
+        <v>1</v>
+      </c>
+      <c r="W34" s="7">
         <v>0.35</v>
       </c>
-      <c r="X34" s="31" t="s">
+      <c r="X34" s="42" t="s">
         <v>397</v>
       </c>
-      <c r="Y34" s="27" t="s">
+      <c r="Y34" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="Z34" s="27" t="s">
+      <c r="Z34" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AB34" s="27"/>
-      <c r="AC34" s="28">
+      <c r="AB34" s="8"/>
+      <c r="AC34" s="9">
         <v>4500</v>
       </c>
-      <c r="AD34" s="28">
+      <c r="AD34" s="9">
         <v>2</v>
       </c>
-      <c r="AE34" s="28">
-        <v>1</v>
-      </c>
-      <c r="AI34" s="33"/>
+      <c r="AE34" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI34" s="69"/>
       <c r="AJ34" s="8" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="35" spans="1:36" s="28" customFormat="1">
-      <c r="A35" s="22">
+    <row r="35" spans="1:36" s="9" customFormat="1">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="22">
+      <c r="B35" s="3">
         <v>34</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D35" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="E35" s="23" t="s">
+      <c r="E35" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="F35" s="23" t="s">
+      <c r="F35" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="G35" s="23" t="s">
+      <c r="G35" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="H35" s="23" t="s">
+      <c r="H35" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="I35" s="23">
+      <c r="I35" s="5">
         <v>1.1299999999999999</v>
       </c>
-      <c r="J35" s="23">
+      <c r="J35" s="5">
         <v>0.84</v>
       </c>
-      <c r="K35" s="22">
+      <c r="K35" s="3">
         <v>0.8</v>
       </c>
-      <c r="L35" s="22">
+      <c r="L35" s="3">
         <v>30</v>
       </c>
-      <c r="M35" s="25">
-        <v>1</v>
-      </c>
-      <c r="N35" s="22">
+      <c r="M35" s="6">
+        <v>1</v>
+      </c>
+      <c r="N35" s="3">
         <v>0</v>
       </c>
-      <c r="O35" s="22">
-        <v>1</v>
-      </c>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="23">
+      <c r="O35" s="3">
+        <v>1</v>
+      </c>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="5">
         <v>0.60000000000000009</v>
       </c>
-      <c r="R35" s="26">
-        <v>1</v>
-      </c>
-      <c r="S35" s="26">
+      <c r="R35" s="7">
+        <v>1</v>
+      </c>
+      <c r="S35" s="7">
         <v>0.25</v>
       </c>
-      <c r="T35" s="24" t="s">
+      <c r="T35" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U35" s="26">
+      <c r="U35" s="7">
         <v>0.6</v>
       </c>
-      <c r="V35" s="26">
-        <v>1</v>
-      </c>
-      <c r="W35" s="26">
+      <c r="V35" s="7">
+        <v>1</v>
+      </c>
+      <c r="W35" s="7">
         <v>0.45</v>
       </c>
-      <c r="X35" s="22"/>
-      <c r="Y35" s="27" t="s">
+      <c r="X35" s="3"/>
+      <c r="Y35" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="Z35" s="27" t="s">
+      <c r="Z35" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AC35" s="28">
+      <c r="AC35" s="9">
         <v>4400</v>
       </c>
-      <c r="AD35" s="28">
+      <c r="AD35" s="9">
         <v>1.2</v>
       </c>
-      <c r="AG35" s="27" t="s">
+      <c r="AG35" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="AI35" s="33"/>
+      <c r="AI35" s="69"/>
       <c r="AJ35" s="8" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="36" spans="1:36" s="28" customFormat="1">
-      <c r="A36" s="22">
+    <row r="36" spans="1:36" s="9" customFormat="1">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="22">
+      <c r="B36" s="3">
         <v>35</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D36" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="E36" s="23" t="s">
+      <c r="E36" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="F36" s="23" t="s">
+      <c r="F36" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="G36" s="23" t="s">
+      <c r="G36" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="H36" s="23" t="s">
+      <c r="H36" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="I36" s="23">
+      <c r="I36" s="5">
         <v>0.78</v>
       </c>
-      <c r="J36" s="23">
+      <c r="J36" s="5">
         <v>0.72</v>
       </c>
-      <c r="K36" s="22">
+      <c r="K36" s="3">
         <v>0.8</v>
       </c>
-      <c r="L36" s="22">
+      <c r="L36" s="3">
         <v>30</v>
       </c>
-      <c r="M36" s="25">
-        <v>1</v>
-      </c>
-      <c r="N36" s="22">
+      <c r="M36" s="6">
+        <v>1</v>
+      </c>
+      <c r="N36" s="3">
         <v>0</v>
       </c>
-      <c r="O36" s="22">
-        <v>1</v>
-      </c>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="23">
+      <c r="O36" s="3">
+        <v>1</v>
+      </c>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="5">
         <v>0.7</v>
       </c>
-      <c r="R36" s="26">
-        <v>1</v>
-      </c>
-      <c r="S36" s="26">
+      <c r="R36" s="7">
+        <v>1</v>
+      </c>
+      <c r="S36" s="7">
         <v>0.32</v>
       </c>
-      <c r="T36" s="24" t="s">
+      <c r="T36" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U36" s="26">
+      <c r="U36" s="7">
         <v>0.6</v>
       </c>
-      <c r="V36" s="26">
-        <v>1</v>
-      </c>
-      <c r="W36" s="26">
+      <c r="V36" s="7">
+        <v>1</v>
+      </c>
+      <c r="W36" s="7">
         <v>0.35</v>
       </c>
-      <c r="X36" s="22"/>
-      <c r="Y36" s="27" t="s">
+      <c r="X36" s="3"/>
+      <c r="Y36" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="Z36" s="27" t="s">
+      <c r="Z36" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AA36" s="28">
-        <v>1</v>
-      </c>
-      <c r="AC36" s="28">
+      <c r="AA36" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC36" s="9">
         <v>4300</v>
       </c>
-      <c r="AD36" s="28">
+      <c r="AD36" s="9">
         <v>1.2</v>
       </c>
-      <c r="AG36" s="27" t="s">
+      <c r="AG36" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="AI36" s="33"/>
+      <c r="AI36" s="69"/>
       <c r="AJ36" s="8" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="37" spans="1:36" s="28" customFormat="1">
-      <c r="A37" s="22">
+    <row r="37" spans="1:36" s="9" customFormat="1">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="22">
+      <c r="B37" s="3">
         <v>36</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="D37" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="E37" s="23" t="s">
+      <c r="E37" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F37" s="23" t="s">
+      <c r="F37" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="G37" s="23" t="s">
+      <c r="G37" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="H37" s="23" t="s">
+      <c r="H37" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="I37" s="23">
+      <c r="I37" s="5">
         <v>1.76</v>
       </c>
-      <c r="J37" s="23">
+      <c r="J37" s="5">
         <v>2.74</v>
       </c>
-      <c r="K37" s="22">
+      <c r="K37" s="3">
         <v>1.5</v>
       </c>
-      <c r="L37" s="22">
+      <c r="L37" s="3">
         <v>30</v>
       </c>
-      <c r="M37" s="25">
-        <v>1</v>
-      </c>
-      <c r="N37" s="22">
+      <c r="M37" s="6">
+        <v>1</v>
+      </c>
+      <c r="N37" s="3">
         <v>0</v>
       </c>
-      <c r="O37" s="22">
-        <v>1</v>
-      </c>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="23">
+      <c r="O37" s="3">
+        <v>1</v>
+      </c>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="5">
         <v>0.60000000000000009</v>
       </c>
-      <c r="R37" s="26">
-        <v>1</v>
-      </c>
-      <c r="S37" s="26">
+      <c r="R37" s="7">
+        <v>1</v>
+      </c>
+      <c r="S37" s="7">
         <v>0.26</v>
       </c>
-      <c r="T37" s="24" t="s">
+      <c r="T37" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="U37" s="26">
+      <c r="U37" s="7">
         <v>0.8</v>
       </c>
-      <c r="V37" s="26">
-        <v>1</v>
-      </c>
-      <c r="W37" s="26">
+      <c r="V37" s="7">
+        <v>1</v>
+      </c>
+      <c r="W37" s="7">
         <v>0.4</v>
       </c>
-      <c r="X37" s="22"/>
-      <c r="Y37" s="27" t="s">
+      <c r="X37" s="3"/>
+      <c r="Y37" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="Z37" s="27" t="s">
+      <c r="Z37" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AC37" s="28">
+      <c r="AC37" s="9">
         <v>4200</v>
       </c>
-      <c r="AD37" s="28">
+      <c r="AD37" s="9">
         <v>1.5</v>
       </c>
-      <c r="AE37" s="28">
+      <c r="AE37" s="9">
         <v>2</v>
       </c>
-      <c r="AF37" s="27" t="s">
+      <c r="AF37" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="AG37" s="27" t="s">
+      <c r="AG37" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="AI37" s="33"/>
+      <c r="AI37" s="69"/>
       <c r="AJ37" s="8" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="38" spans="1:36" s="49" customFormat="1">
-      <c r="A38" s="45">
+    <row r="38" spans="1:36" s="40" customFormat="1">
+      <c r="A38" s="37">
         <v>37</v>
       </c>
-      <c r="B38" s="45">
+      <c r="B38" s="37">
         <v>37</v>
       </c>
-      <c r="C38" s="46" t="s">
+      <c r="C38" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="D38" s="46" t="s">
+      <c r="D38" s="38" t="s">
         <v>266</v>
       </c>
-      <c r="E38" s="46" t="s">
+      <c r="E38" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="F38" s="47" t="s">
+      <c r="F38" s="67" t="s">
         <v>243</v>
       </c>
-      <c r="G38" s="47" t="s">
+      <c r="G38" s="67" t="s">
         <v>243</v>
       </c>
-      <c r="H38" s="46" t="s">
+      <c r="H38" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="I38" s="46">
+      <c r="I38" s="38">
         <v>2.64</v>
       </c>
-      <c r="J38" s="46">
+      <c r="J38" s="38">
         <v>2.38</v>
       </c>
-      <c r="K38" s="45">
-        <v>1</v>
-      </c>
-      <c r="L38" s="45">
+      <c r="K38" s="37">
+        <v>1</v>
+      </c>
+      <c r="L38" s="37">
         <v>30</v>
       </c>
-      <c r="M38" s="46">
-        <v>1</v>
-      </c>
-      <c r="N38" s="45">
+      <c r="M38" s="38">
+        <v>1</v>
+      </c>
+      <c r="N38" s="37">
         <v>0</v>
       </c>
-      <c r="O38" s="45">
+      <c r="O38" s="37">
         <v>4</v>
       </c>
-      <c r="P38" s="45"/>
-      <c r="Q38" s="46">
+      <c r="P38" s="37"/>
+      <c r="Q38" s="38">
         <v>1.2</v>
       </c>
-      <c r="R38" s="48">
+      <c r="R38" s="39">
         <v>0.73333333333333328</v>
       </c>
-      <c r="S38" s="48">
+      <c r="S38" s="39">
         <v>0.74</v>
       </c>
-      <c r="T38" s="46" t="s">
+      <c r="T38" s="38" t="s">
         <v>341</v>
       </c>
-      <c r="U38" s="48">
-        <v>1</v>
-      </c>
-      <c r="V38" s="48">
+      <c r="U38" s="39">
+        <v>1</v>
+      </c>
+      <c r="V38" s="39">
         <v>0.8</v>
       </c>
-      <c r="W38" s="48">
+      <c r="W38" s="39">
         <v>0.1</v>
       </c>
-      <c r="X38" s="45"/>
-      <c r="Y38" s="49" t="s">
+      <c r="X38" s="37"/>
+      <c r="Y38" s="40" t="s">
         <v>342</v>
       </c>
-      <c r="Z38" s="49" t="s">
+      <c r="Z38" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="AA38" s="49">
-        <v>1</v>
-      </c>
-      <c r="AC38" s="49">
+      <c r="AA38" s="40">
+        <v>1</v>
+      </c>
+      <c r="AC38" s="40">
         <v>4100</v>
       </c>
-      <c r="AD38" s="49">
+      <c r="AD38" s="40">
         <v>2</v>
       </c>
-      <c r="AE38" s="49">
-        <v>1</v>
-      </c>
-      <c r="AG38" s="49" t="s">
+      <c r="AE38" s="40">
+        <v>1</v>
+      </c>
+      <c r="AG38" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="AI38" s="50"/>
-      <c r="AJ38" s="50"/>
+      <c r="AI38" s="41"/>
+      <c r="AJ38" s="41"/>
     </row>
-    <row r="39" spans="1:36" s="38" customFormat="1">
-      <c r="A39" s="34">
+    <row r="39" spans="1:36" s="15" customFormat="1">
+      <c r="A39" s="12">
         <v>38</v>
       </c>
-      <c r="B39" s="34">
+      <c r="B39" s="12">
         <v>38</v>
       </c>
-      <c r="C39" s="35" t="s">
+      <c r="C39" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="D39" s="35" t="s">
+      <c r="D39" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="E39" s="35" t="s">
+      <c r="E39" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="F39" s="36" t="s">
+      <c r="F39" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="G39" s="35" t="s">
+      <c r="G39" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="H39" s="35" t="s">
+      <c r="H39" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="I39" s="35">
+      <c r="I39" s="13">
         <v>10</v>
       </c>
-      <c r="J39" s="34">
+      <c r="J39" s="12">
         <v>10</v>
       </c>
-      <c r="K39" s="34">
-        <v>1</v>
-      </c>
-      <c r="L39" s="34">
+      <c r="K39" s="12">
+        <v>1</v>
+      </c>
+      <c r="L39" s="12">
         <v>30</v>
       </c>
-      <c r="M39" s="35">
-        <v>1</v>
-      </c>
-      <c r="N39" s="34">
+      <c r="M39" s="13">
+        <v>1</v>
+      </c>
+      <c r="N39" s="12">
         <v>300</v>
       </c>
-      <c r="O39" s="34">
+      <c r="O39" s="12">
         <v>4</v>
       </c>
-      <c r="P39" s="34"/>
-      <c r="Q39" s="35">
+      <c r="P39" s="12"/>
+      <c r="Q39" s="13">
         <v>1.2</v>
       </c>
-      <c r="R39" s="37">
-        <v>1</v>
-      </c>
-      <c r="S39" s="37">
+      <c r="R39" s="14">
+        <v>1</v>
+      </c>
+      <c r="S39" s="14">
         <v>0.74</v>
       </c>
-      <c r="T39" s="35" t="s">
+      <c r="T39" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="U39" s="37">
-        <v>1</v>
-      </c>
-      <c r="V39" s="37">
-        <v>1</v>
-      </c>
-      <c r="W39" s="37">
+      <c r="U39" s="14">
+        <v>1</v>
+      </c>
+      <c r="V39" s="14">
+        <v>1</v>
+      </c>
+      <c r="W39" s="14">
         <v>0.35</v>
       </c>
-      <c r="X39" s="34"/>
-      <c r="Y39" s="38" t="s">
+      <c r="X39" s="12"/>
+      <c r="Y39" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="Z39" s="38" t="s">
+      <c r="Z39" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="AC39" s="38">
+      <c r="AC39" s="15">
         <v>3500</v>
       </c>
-      <c r="AD39" s="38">
+      <c r="AD39" s="15">
         <v>2</v>
       </c>
-      <c r="AE39" s="38">
-        <v>1</v>
-      </c>
-      <c r="AI39" s="39" t="s">
+      <c r="AE39" s="15">
+        <v>1</v>
+      </c>
+      <c r="AI39" s="16" t="s">
         <v>332</v>
       </c>
       <c r="AJ39" s="8" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="40" spans="1:36" s="38" customFormat="1">
-      <c r="A40" s="34">
+    <row r="40" spans="1:36" s="15" customFormat="1">
+      <c r="A40" s="12">
         <v>39</v>
       </c>
-      <c r="B40" s="34">
+      <c r="B40" s="12">
         <v>39</v>
       </c>
-      <c r="C40" s="35" t="s">
+      <c r="C40" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="D40" s="35" t="s">
+      <c r="D40" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="E40" s="35" t="s">
+      <c r="E40" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="F40" s="35" t="s">
+      <c r="F40" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G40" s="35" t="s">
+      <c r="G40" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="H40" s="35" t="s">
+      <c r="H40" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="I40" s="35">
+      <c r="I40" s="13">
         <v>1.68</v>
       </c>
-      <c r="J40" s="35">
+      <c r="J40" s="13">
         <v>2.84</v>
       </c>
-      <c r="K40" s="34">
-        <v>1</v>
-      </c>
-      <c r="L40" s="34">
+      <c r="K40" s="12">
+        <v>1</v>
+      </c>
+      <c r="L40" s="12">
         <v>30</v>
       </c>
-      <c r="M40" s="35">
-        <v>1</v>
-      </c>
-      <c r="N40" s="34">
+      <c r="M40" s="13">
+        <v>1</v>
+      </c>
+      <c r="N40" s="12">
         <v>200</v>
       </c>
-      <c r="O40" s="34">
+      <c r="O40" s="12">
         <v>3</v>
       </c>
-      <c r="P40" s="34"/>
-      <c r="Q40" s="35">
+      <c r="P40" s="12"/>
+      <c r="Q40" s="13">
         <v>0.7</v>
       </c>
-      <c r="R40" s="37">
-        <v>1</v>
-      </c>
-      <c r="S40" s="37">
+      <c r="R40" s="14">
+        <v>1</v>
+      </c>
+      <c r="S40" s="14">
         <v>0.74</v>
       </c>
-      <c r="T40" s="35" t="s">
+      <c r="T40" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="U40" s="37">
-        <v>1</v>
-      </c>
-      <c r="V40" s="37">
-        <v>1</v>
-      </c>
-      <c r="W40" s="37">
+      <c r="U40" s="14">
+        <v>1</v>
+      </c>
+      <c r="V40" s="14">
+        <v>1</v>
+      </c>
+      <c r="W40" s="14">
         <v>0.35</v>
       </c>
-      <c r="X40" s="34"/>
-      <c r="Y40" s="38" t="s">
+      <c r="X40" s="12"/>
+      <c r="Y40" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="Z40" s="38" t="s">
+      <c r="Z40" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AC40" s="38">
+      <c r="AC40" s="15">
         <v>9100</v>
       </c>
-      <c r="AD40" s="38">
+      <c r="AD40" s="15">
         <v>2</v>
       </c>
-      <c r="AE40" s="38">
-        <v>1</v>
-      </c>
-      <c r="AF40" s="38" t="s">
+      <c r="AE40" s="15">
+        <v>1</v>
+      </c>
+      <c r="AF40" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="AG40" s="38" t="s">
+      <c r="AG40" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="AI40" s="39" t="s">
+      <c r="AI40" s="16" t="s">
         <v>333</v>
       </c>
       <c r="AJ40" s="8" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="41" spans="1:36" s="38" customFormat="1">
-      <c r="A41" s="34">
+    <row r="41" spans="1:36" s="15" customFormat="1">
+      <c r="A41" s="12">
         <v>40</v>
       </c>
-      <c r="B41" s="34">
+      <c r="B41" s="12">
         <v>40</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="D41" s="35" t="s">
+      <c r="D41" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="E41" s="35" t="s">
+      <c r="E41" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="F41" s="35" t="s">
+      <c r="F41" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="G41" s="35" t="s">
+      <c r="G41" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="H41" s="35" t="s">
+      <c r="H41" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="I41" s="35">
+      <c r="I41" s="13">
         <v>7.28</v>
       </c>
-      <c r="J41" s="35">
+      <c r="J41" s="13">
         <v>7.53</v>
       </c>
-      <c r="K41" s="34">
+      <c r="K41" s="12">
         <v>0.8</v>
       </c>
-      <c r="L41" s="34">
+      <c r="L41" s="12">
         <v>30</v>
       </c>
-      <c r="M41" s="35">
-        <v>1</v>
-      </c>
-      <c r="N41" s="34">
+      <c r="M41" s="13">
+        <v>1</v>
+      </c>
+      <c r="N41" s="12">
         <v>600</v>
       </c>
-      <c r="O41" s="34">
-        <v>1</v>
-      </c>
-      <c r="P41" s="34"/>
-      <c r="Q41" s="35">
+      <c r="O41" s="12">
+        <v>1</v>
+      </c>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="13">
         <v>1.4</v>
       </c>
-      <c r="R41" s="37">
-        <v>1</v>
-      </c>
-      <c r="S41" s="37">
+      <c r="R41" s="14">
+        <v>1</v>
+      </c>
+      <c r="S41" s="14">
         <v>0.74</v>
       </c>
-      <c r="T41" s="35" t="s">
+      <c r="T41" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="U41" s="37">
-        <v>1</v>
-      </c>
-      <c r="V41" s="37">
-        <v>1</v>
-      </c>
-      <c r="W41" s="37">
+      <c r="U41" s="14">
+        <v>1</v>
+      </c>
+      <c r="V41" s="14">
+        <v>1</v>
+      </c>
+      <c r="W41" s="14">
         <v>0.35</v>
       </c>
-      <c r="X41" s="34"/>
-      <c r="Y41" s="38" t="s">
+      <c r="X41" s="12"/>
+      <c r="Y41" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="Z41" s="38" t="s">
+      <c r="Z41" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AC41" s="38">
+      <c r="AC41" s="15">
         <v>9100</v>
       </c>
-      <c r="AD41" s="38">
+      <c r="AD41" s="15">
         <v>2</v>
       </c>
-      <c r="AE41" s="38">
-        <v>1</v>
-      </c>
-      <c r="AI41" s="39" t="s">
+      <c r="AE41" s="15">
+        <v>1</v>
+      </c>
+      <c r="AI41" s="16" t="s">
         <v>334</v>
       </c>
       <c r="AJ41" s="8" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="42" spans="1:36" s="38" customFormat="1">
-      <c r="A42" s="34">
+    <row r="42" spans="1:36" s="15" customFormat="1">
+      <c r="A42" s="12">
         <v>41</v>
       </c>
-      <c r="B42" s="34">
+      <c r="B42" s="12">
         <v>41</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="D42" s="35" t="s">
+      <c r="D42" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="E42" s="35" t="s">
+      <c r="E42" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="F42" s="35" t="s">
+      <c r="F42" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="G42" s="35" t="s">
+      <c r="G42" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="H42" s="35" t="s">
+      <c r="H42" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="I42" s="35">
-        <v>1</v>
-      </c>
-      <c r="J42" s="35">
+      <c r="I42" s="13">
+        <v>1</v>
+      </c>
+      <c r="J42" s="13">
         <v>1.5</v>
       </c>
-      <c r="K42" s="34">
-        <v>1</v>
-      </c>
-      <c r="L42" s="34">
+      <c r="K42" s="12">
+        <v>1</v>
+      </c>
+      <c r="L42" s="12">
         <v>30</v>
       </c>
-      <c r="M42" s="35">
-        <v>1</v>
-      </c>
-      <c r="N42" s="34">
+      <c r="M42" s="13">
+        <v>1</v>
+      </c>
+      <c r="N42" s="12">
         <v>300</v>
       </c>
-      <c r="O42" s="34">
+      <c r="O42" s="12">
         <v>2</v>
       </c>
-      <c r="P42" s="34"/>
-      <c r="Q42" s="35">
+      <c r="P42" s="12"/>
+      <c r="Q42" s="13">
         <v>0.55000000000000004</v>
       </c>
-      <c r="R42" s="37">
+      <c r="R42" s="14">
         <v>1.2</v>
       </c>
-      <c r="S42" s="37">
+      <c r="S42" s="14">
         <v>0.4</v>
       </c>
-      <c r="T42" s="35" t="s">
+      <c r="T42" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="U42" s="37">
-        <v>1</v>
-      </c>
-      <c r="V42" s="37">
-        <v>1</v>
-      </c>
-      <c r="W42" s="37">
+      <c r="U42" s="14">
+        <v>1</v>
+      </c>
+      <c r="V42" s="14">
+        <v>1</v>
+      </c>
+      <c r="W42" s="14">
         <v>0.5</v>
       </c>
-      <c r="X42" s="34"/>
-      <c r="Y42" s="38" t="s">
+      <c r="X42" s="12"/>
+      <c r="Y42" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="Z42" s="38" t="s">
+      <c r="Z42" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="AC42" s="38">
+      <c r="AC42" s="15">
         <v>3200</v>
       </c>
-      <c r="AD42" s="38">
+      <c r="AD42" s="15">
         <v>1.5</v>
       </c>
-      <c r="AE42" s="38">
+      <c r="AE42" s="15">
         <v>2</v>
       </c>
-      <c r="AG42" s="38" t="s">
+      <c r="AG42" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="AI42" s="39" t="s">
+      <c r="AI42" s="16" t="s">
         <v>335</v>
       </c>
       <c r="AJ42" s="8" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="43" spans="1:36" s="43" customFormat="1">
-      <c r="A43" s="40">
+    <row r="43" spans="1:36" s="40" customFormat="1">
+      <c r="A43" s="37">
         <v>42</v>
       </c>
-      <c r="B43" s="40">
+      <c r="B43" s="37">
         <v>42</v>
       </c>
-      <c r="C43" s="41" t="s">
+      <c r="C43" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="D43" s="41" t="s">
+      <c r="D43" s="38" t="s">
         <v>283</v>
       </c>
-      <c r="E43" s="41" t="s">
+      <c r="E43" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="F43" s="41" t="s">
+      <c r="F43" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="G43" s="41" t="s">
+      <c r="G43" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="H43" s="41" t="s">
+      <c r="H43" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="I43" s="41">
-        <v>1</v>
-      </c>
-      <c r="J43" s="41">
+      <c r="I43" s="38">
+        <v>1</v>
+      </c>
+      <c r="J43" s="38">
         <v>1.5</v>
       </c>
-      <c r="K43" s="40">
-        <v>1</v>
-      </c>
-      <c r="L43" s="40">
+      <c r="K43" s="37">
+        <v>1</v>
+      </c>
+      <c r="L43" s="37">
         <v>30</v>
       </c>
-      <c r="M43" s="41">
-        <v>1</v>
-      </c>
-      <c r="N43" s="40">
+      <c r="M43" s="38">
+        <v>1</v>
+      </c>
+      <c r="N43" s="37">
         <v>0</v>
       </c>
-      <c r="O43" s="40">
+      <c r="O43" s="37">
         <v>2</v>
       </c>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="41">
+      <c r="P43" s="37"/>
+      <c r="Q43" s="38">
         <v>0.55000000000000004</v>
       </c>
-      <c r="R43" s="42">
+      <c r="R43" s="39">
         <v>1.2</v>
       </c>
-      <c r="S43" s="42">
+      <c r="S43" s="39">
         <v>0.4</v>
       </c>
-      <c r="T43" s="41" t="s">
+      <c r="T43" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="U43" s="42">
-        <v>1</v>
-      </c>
-      <c r="V43" s="42">
-        <v>1</v>
-      </c>
-      <c r="W43" s="42">
+      <c r="U43" s="39">
+        <v>1</v>
+      </c>
+      <c r="V43" s="39">
+        <v>1</v>
+      </c>
+      <c r="W43" s="39">
         <v>0.5</v>
       </c>
-      <c r="X43" s="40"/>
-      <c r="Y43" s="43" t="s">
+      <c r="X43" s="37"/>
+      <c r="Y43" s="40" t="s">
         <v>300</v>
       </c>
-      <c r="Z43" s="43" t="s">
+      <c r="Z43" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="AA43" s="43">
-        <v>1</v>
-      </c>
-      <c r="AC43" s="43">
+      <c r="AA43" s="40">
+        <v>1</v>
+      </c>
+      <c r="AC43" s="40">
         <v>3100</v>
       </c>
-      <c r="AD43" s="43">
+      <c r="AD43" s="40">
         <v>1.5</v>
       </c>
-      <c r="AE43" s="43">
+      <c r="AE43" s="40">
         <v>2</v>
       </c>
-      <c r="AG43" s="43" t="s">
+      <c r="AG43" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="AI43" s="44"/>
-      <c r="AJ43" s="44"/>
+      <c r="AI43" s="41"/>
+      <c r="AJ43" s="41"/>
     </row>
-    <row r="44" spans="1:36" s="38" customFormat="1">
-      <c r="A44" s="34">
+    <row r="44" spans="1:36" s="35" customFormat="1">
+      <c r="A44" s="32">
         <v>43</v>
       </c>
-      <c r="B44" s="34">
+      <c r="B44" s="32">
         <v>43</v>
       </c>
-      <c r="C44" s="35" t="s">
+      <c r="C44" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="D44" s="35" t="s">
+      <c r="D44" s="33" t="s">
         <v>277</v>
       </c>
-      <c r="E44" s="35" t="s">
+      <c r="E44" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="F44" s="35" t="s">
+      <c r="F44" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="G44" s="35" t="s">
+      <c r="G44" s="33" t="s">
         <v>310</v>
       </c>
-      <c r="H44" s="35" t="s">
+      <c r="H44" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="I44" s="35">
+      <c r="I44" s="33">
         <v>0.96</v>
       </c>
-      <c r="J44" s="35">
+      <c r="J44" s="33">
         <v>0.83</v>
       </c>
-      <c r="K44" s="34">
-        <v>1</v>
-      </c>
-      <c r="L44" s="34">
+      <c r="K44" s="32">
+        <v>1</v>
+      </c>
+      <c r="L44" s="32">
         <v>30</v>
       </c>
-      <c r="M44" s="35">
-        <v>1</v>
-      </c>
-      <c r="N44" s="34">
+      <c r="M44" s="33">
+        <v>1</v>
+      </c>
+      <c r="N44" s="32">
         <v>500</v>
       </c>
-      <c r="O44" s="34">
+      <c r="O44" s="32">
         <v>3</v>
       </c>
-      <c r="P44" s="34"/>
-      <c r="Q44" s="35">
+      <c r="P44" s="32"/>
+      <c r="Q44" s="33">
         <v>0.7</v>
       </c>
-      <c r="R44" s="37">
-        <v>1</v>
-      </c>
-      <c r="S44" s="37">
+      <c r="R44" s="34">
+        <v>1</v>
+      </c>
+      <c r="S44" s="34">
         <v>0.74</v>
       </c>
-      <c r="T44" s="35" t="s">
+      <c r="T44" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="U44" s="37">
-        <v>1</v>
-      </c>
-      <c r="V44" s="37">
+      <c r="U44" s="34">
+        <v>1</v>
+      </c>
+      <c r="V44" s="34">
         <v>0.7</v>
       </c>
-      <c r="W44" s="37">
+      <c r="W44" s="34">
         <v>0.35</v>
       </c>
-      <c r="X44" s="34"/>
-      <c r="Y44" s="38" t="s">
+      <c r="X44" s="32"/>
+      <c r="Y44" s="35" t="s">
         <v>301</v>
       </c>
-      <c r="Z44" s="38" t="s">
+      <c r="Z44" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="AC44" s="38">
+      <c r="AC44" s="35">
         <v>9100</v>
       </c>
-      <c r="AD44" s="38">
+      <c r="AD44" s="35">
         <v>1.5</v>
       </c>
-      <c r="AE44" s="38">
+      <c r="AE44" s="35">
         <v>2</v>
       </c>
-      <c r="AG44" s="38" t="s">
+      <c r="AG44" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="AI44" s="39" t="s">
+      <c r="AI44" s="36" t="s">
         <v>336</v>
       </c>
       <c r="AJ44" s="8" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="45" spans="1:36" s="43" customFormat="1">
-      <c r="A45" s="40">
+    <row r="45" spans="1:36" s="40" customFormat="1">
+      <c r="A45" s="37">
         <v>44</v>
       </c>
-      <c r="B45" s="40">
+      <c r="B45" s="37">
         <v>44</v>
       </c>
-      <c r="C45" s="41" t="s">
+      <c r="C45" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="D45" s="41" t="s">
+      <c r="D45" s="38" t="s">
         <v>278</v>
       </c>
-      <c r="E45" s="41" t="s">
+      <c r="E45" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="F45" s="41" t="s">
+      <c r="F45" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="G45" s="41" t="s">
+      <c r="G45" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="H45" s="41" t="s">
+      <c r="H45" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="I45" s="41">
-        <v>1</v>
-      </c>
-      <c r="J45" s="41">
+      <c r="I45" s="38">
+        <v>1</v>
+      </c>
+      <c r="J45" s="38">
         <v>1.5</v>
       </c>
-      <c r="K45" s="40">
-        <v>1</v>
-      </c>
-      <c r="L45" s="40">
+      <c r="K45" s="37">
+        <v>1</v>
+      </c>
+      <c r="L45" s="37">
         <v>30</v>
       </c>
-      <c r="M45" s="41">
-        <v>1</v>
-      </c>
-      <c r="N45" s="40">
+      <c r="M45" s="38">
+        <v>1</v>
+      </c>
+      <c r="N45" s="37">
         <v>0</v>
       </c>
-      <c r="O45" s="40">
+      <c r="O45" s="37">
         <v>2</v>
       </c>
-      <c r="P45" s="40"/>
-      <c r="Q45" s="41">
+      <c r="P45" s="37"/>
+      <c r="Q45" s="38">
         <v>0.55000000000000004</v>
       </c>
-      <c r="R45" s="42">
+      <c r="R45" s="39">
         <v>1.2</v>
       </c>
-      <c r="S45" s="42">
+      <c r="S45" s="39">
         <v>0.4</v>
       </c>
-      <c r="T45" s="41" t="s">
+      <c r="T45" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="U45" s="42">
-        <v>1</v>
-      </c>
-      <c r="V45" s="42">
-        <v>1</v>
-      </c>
-      <c r="W45" s="42">
+      <c r="U45" s="39">
+        <v>1</v>
+      </c>
+      <c r="V45" s="39">
+        <v>1</v>
+      </c>
+      <c r="W45" s="39">
         <v>0.5</v>
       </c>
-      <c r="X45" s="40"/>
-      <c r="Y45" s="43" t="s">
+      <c r="X45" s="37"/>
+      <c r="Y45" s="40" t="s">
         <v>300</v>
       </c>
-      <c r="Z45" s="43" t="s">
+      <c r="Z45" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="AA45" s="43">
-        <v>1</v>
-      </c>
-      <c r="AC45" s="43">
+      <c r="AA45" s="40">
+        <v>1</v>
+      </c>
+      <c r="AC45" s="40">
         <v>2900</v>
       </c>
-      <c r="AD45" s="43">
+      <c r="AD45" s="40">
         <v>1.5</v>
       </c>
-      <c r="AE45" s="43">
+      <c r="AE45" s="40">
         <v>2</v>
       </c>
-      <c r="AG45" s="43" t="s">
+      <c r="AG45" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="AI45" s="44"/>
-      <c r="AJ45" s="44"/>
+      <c r="AI45" s="41"/>
+      <c r="AJ45" s="41"/>
     </row>
-    <row r="46" spans="1:36" s="43" customFormat="1">
-      <c r="A46" s="40">
+    <row r="46" spans="1:36" s="40" customFormat="1">
+      <c r="A46" s="37">
         <v>45</v>
       </c>
-      <c r="B46" s="40">
+      <c r="B46" s="37">
         <v>45</v>
       </c>
-      <c r="C46" s="41" t="s">
+      <c r="C46" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="D46" s="41" t="s">
+      <c r="D46" s="38" t="s">
         <v>282</v>
       </c>
-      <c r="E46" s="41" t="s">
+      <c r="E46" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="F46" s="41" t="s">
+      <c r="F46" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="G46" s="41" t="s">
+      <c r="G46" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="H46" s="41" t="s">
+      <c r="H46" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="I46" s="41">
+      <c r="I46" s="38">
         <v>0.96</v>
       </c>
-      <c r="J46" s="41">
+      <c r="J46" s="38">
         <v>0.68</v>
       </c>
-      <c r="K46" s="40">
-        <v>1</v>
-      </c>
-      <c r="L46" s="40">
+      <c r="K46" s="37">
+        <v>1</v>
+      </c>
+      <c r="L46" s="37">
         <v>30</v>
       </c>
-      <c r="M46" s="41">
-        <v>1</v>
-      </c>
-      <c r="N46" s="40">
+      <c r="M46" s="38">
+        <v>1</v>
+      </c>
+      <c r="N46" s="37">
         <v>0</v>
       </c>
-      <c r="O46" s="40">
+      <c r="O46" s="37">
         <v>3</v>
       </c>
-      <c r="P46" s="40"/>
-      <c r="Q46" s="41">
+      <c r="P46" s="37"/>
+      <c r="Q46" s="38">
         <v>0.7</v>
       </c>
-      <c r="R46" s="42">
-        <v>1</v>
-      </c>
-      <c r="S46" s="42">
+      <c r="R46" s="39">
+        <v>1</v>
+      </c>
+      <c r="S46" s="39">
         <v>0.8</v>
       </c>
-      <c r="T46" s="41" t="s">
+      <c r="T46" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="U46" s="42">
+      <c r="U46" s="39">
         <v>1.5</v>
       </c>
-      <c r="V46" s="42">
-        <v>1</v>
-      </c>
-      <c r="W46" s="42">
+      <c r="V46" s="39">
+        <v>1</v>
+      </c>
+      <c r="W46" s="39">
         <v>0.35</v>
       </c>
-      <c r="X46" s="40"/>
-      <c r="Y46" s="43" t="s">
+      <c r="X46" s="37"/>
+      <c r="Y46" s="40" t="s">
         <v>305</v>
       </c>
-      <c r="Z46" s="43" t="s">
+      <c r="Z46" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="AC46" s="43">
+      <c r="AC46" s="40">
         <v>2800</v>
       </c>
-      <c r="AD46" s="43">
+      <c r="AD46" s="40">
         <v>1.5</v>
       </c>
-      <c r="AE46" s="43">
+      <c r="AE46" s="40">
         <v>2</v>
       </c>
-      <c r="AG46" s="43" t="s">
+      <c r="AG46" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="AI46" s="44"/>
-      <c r="AJ46" s="44"/>
+      <c r="AI46" s="41"/>
+      <c r="AJ46" s="41"/>
     </row>
     <row r="47" spans="1:36" s="15" customFormat="1">
       <c r="A47" s="12">
@@ -8372,94 +8354,94 @@
         <v>343</v>
       </c>
     </row>
-    <row r="56" spans="1:36" s="74" customFormat="1">
-      <c r="A56" s="68">
+    <row r="56" spans="1:36" s="65" customFormat="1">
+      <c r="A56" s="59">
         <v>55</v>
       </c>
-      <c r="B56" s="68">
+      <c r="B56" s="59">
         <v>55</v>
       </c>
-      <c r="C56" s="69" t="s">
+      <c r="C56" s="60" t="s">
         <v>387</v>
       </c>
-      <c r="D56" s="69" t="s">
+      <c r="D56" s="60" t="s">
         <v>213</v>
       </c>
-      <c r="E56" s="70" t="s">
+      <c r="E56" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="F56" s="70" t="s">
+      <c r="F56" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="G56" s="69" t="s">
+      <c r="G56" s="60" t="s">
         <v>311</v>
       </c>
-      <c r="H56" s="69" t="s">
+      <c r="H56" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="I56" s="69">
+      <c r="I56" s="60">
         <v>1.53</v>
       </c>
-      <c r="J56" s="69">
+      <c r="J56" s="60">
         <v>1.48</v>
       </c>
-      <c r="K56" s="68">
+      <c r="K56" s="59">
         <v>0.8</v>
       </c>
-      <c r="L56" s="68">
+      <c r="L56" s="59">
         <v>30</v>
       </c>
-      <c r="M56" s="71">
-        <v>1</v>
-      </c>
-      <c r="N56" s="68">
+      <c r="M56" s="62">
+        <v>1</v>
+      </c>
+      <c r="N56" s="59">
         <v>40</v>
       </c>
-      <c r="O56" s="68">
+      <c r="O56" s="59">
         <v>4</v>
       </c>
-      <c r="P56" s="68"/>
-      <c r="Q56" s="69">
+      <c r="P56" s="59"/>
+      <c r="Q56" s="60">
         <v>0.7</v>
       </c>
-      <c r="R56" s="72">
-        <v>1</v>
-      </c>
-      <c r="S56" s="72">
+      <c r="R56" s="63">
+        <v>1</v>
+      </c>
+      <c r="S56" s="63">
         <v>0.6</v>
       </c>
-      <c r="T56" s="69" t="s">
+      <c r="T56" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="U56" s="72">
+      <c r="U56" s="63">
         <v>1.4</v>
       </c>
-      <c r="V56" s="72">
-        <v>1</v>
-      </c>
-      <c r="W56" s="72">
+      <c r="V56" s="63">
+        <v>1</v>
+      </c>
+      <c r="W56" s="63">
         <v>0.35</v>
       </c>
-      <c r="X56" s="68"/>
-      <c r="Y56" s="73" t="s">
+      <c r="X56" s="59"/>
+      <c r="Y56" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="Z56" s="73" t="s">
+      <c r="Z56" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="AC56" s="74">
+      <c r="AC56" s="65">
         <v>7200</v>
       </c>
-      <c r="AD56" s="74">
+      <c r="AD56" s="65">
         <v>1.5</v>
       </c>
-      <c r="AE56" s="74">
+      <c r="AE56" s="65">
         <v>2</v>
       </c>
-      <c r="AG56" s="73" t="s">
+      <c r="AG56" s="64" t="s">
         <v>185</v>
       </c>
-      <c r="AJ56" s="73" t="s">
+      <c r="AJ56" s="64" t="s">
         <v>343</v>
       </c>
     </row>
@@ -8637,426 +8619,987 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="59" spans="1:36" s="54" customFormat="1">
-      <c r="A59" s="52">
+    <row r="59" spans="1:36" s="45" customFormat="1">
+      <c r="A59" s="43">
         <v>58</v>
       </c>
-      <c r="B59" s="52">
+      <c r="B59" s="43">
         <v>58</v>
       </c>
-      <c r="C59" s="53" t="s">
+      <c r="C59" s="44" t="s">
         <v>411</v>
       </c>
-      <c r="D59" s="53" t="s">
+      <c r="D59" s="44" t="s">
         <v>414</v>
       </c>
-      <c r="E59" s="53" t="s">
+      <c r="E59" s="44" t="s">
         <v>413</v>
       </c>
-      <c r="F59" s="53" t="s">
+      <c r="F59" s="44" t="s">
         <v>412</v>
       </c>
-      <c r="G59" s="53" t="s">
+      <c r="G59" s="44" t="s">
         <v>412</v>
       </c>
-      <c r="H59" s="53" t="s">
+      <c r="H59" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="I59" s="53">
+      <c r="I59" s="44">
         <v>2.64</v>
       </c>
-      <c r="J59" s="53">
+      <c r="J59" s="44">
         <v>2.38</v>
       </c>
-      <c r="K59" s="52">
-        <v>1</v>
-      </c>
-      <c r="L59" s="52">
+      <c r="K59" s="43">
+        <v>1</v>
+      </c>
+      <c r="L59" s="43">
         <v>30</v>
       </c>
-      <c r="M59" s="53">
-        <v>1</v>
-      </c>
-      <c r="N59" s="52">
+      <c r="M59" s="44">
+        <v>1</v>
+      </c>
+      <c r="N59" s="43">
         <v>0</v>
       </c>
-      <c r="O59" s="52">
+      <c r="O59" s="43">
         <v>4</v>
       </c>
-      <c r="Q59" s="53">
+      <c r="Q59" s="44">
         <v>0.64</v>
       </c>
-      <c r="R59" s="55">
+      <c r="R59" s="46">
         <v>0.73</v>
       </c>
-      <c r="S59" s="55">
+      <c r="S59" s="46">
         <v>0.74</v>
       </c>
-      <c r="T59" s="53" t="s">
+      <c r="T59" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="U59" s="55">
-        <v>1</v>
-      </c>
-      <c r="V59" s="55">
+      <c r="U59" s="46">
+        <v>1</v>
+      </c>
+      <c r="V59" s="46">
         <v>0.8</v>
       </c>
-      <c r="W59" s="55">
+      <c r="W59" s="46">
         <v>0.1</v>
       </c>
-      <c r="Y59" s="56" t="s">
+      <c r="Y59" s="47" t="s">
         <v>342</v>
       </c>
-      <c r="Z59" s="57" t="s">
+      <c r="Z59" s="48" t="s">
         <v>378</v>
       </c>
-      <c r="AA59" s="57">
-        <v>1</v>
-      </c>
-      <c r="AC59" s="57">
+      <c r="AA59" s="48">
+        <v>1</v>
+      </c>
+      <c r="AC59" s="48">
         <v>1000</v>
       </c>
-      <c r="AD59" s="57">
+      <c r="AD59" s="48">
         <v>1.5</v>
       </c>
     </row>
-    <row r="60" spans="1:36" s="54" customFormat="1">
+    <row r="60" spans="1:36" s="45" customFormat="1">
       <c r="A60" s="12">
         <v>59</v>
       </c>
       <c r="B60" s="12">
         <v>59</v>
       </c>
-      <c r="C60" s="53" t="s">
+      <c r="C60" s="44" t="s">
         <v>415</v>
       </c>
-      <c r="D60" s="53" t="s">
+      <c r="D60" s="44" t="s">
         <v>417</v>
       </c>
-      <c r="E60" s="53" t="s">
+      <c r="E60" s="44" t="s">
         <v>416</v>
       </c>
-      <c r="F60" s="53" t="s">
+      <c r="F60" s="44" t="s">
         <v>418</v>
       </c>
-      <c r="G60" s="53" t="s">
+      <c r="G60" s="44" t="s">
         <v>419</v>
       </c>
-      <c r="H60" s="53" t="s">
+      <c r="H60" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="I60" s="53">
+      <c r="I60" s="44">
         <v>2.64</v>
       </c>
-      <c r="J60" s="53">
+      <c r="J60" s="44">
         <v>2.38</v>
       </c>
-      <c r="K60" s="52">
-        <v>1</v>
-      </c>
-      <c r="L60" s="52">
+      <c r="K60" s="43">
+        <v>1</v>
+      </c>
+      <c r="L60" s="43">
         <v>30</v>
       </c>
-      <c r="M60" s="53">
-        <v>1</v>
-      </c>
-      <c r="N60" s="52">
+      <c r="M60" s="44">
+        <v>1</v>
+      </c>
+      <c r="N60" s="43">
         <v>0</v>
       </c>
-      <c r="O60" s="52">
+      <c r="O60" s="43">
         <v>4</v>
       </c>
-      <c r="Q60" s="53">
+      <c r="Q60" s="44">
         <v>0.64</v>
       </c>
-      <c r="R60" s="55">
+      <c r="R60" s="46">
         <v>0.73</v>
       </c>
-      <c r="S60" s="55">
+      <c r="S60" s="46">
         <v>0.74</v>
       </c>
-      <c r="T60" s="53" t="s">
+      <c r="T60" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="U60" s="55">
-        <v>1</v>
-      </c>
-      <c r="V60" s="55">
+      <c r="U60" s="46">
+        <v>1</v>
+      </c>
+      <c r="V60" s="46">
         <v>0.8</v>
       </c>
-      <c r="W60" s="55">
+      <c r="W60" s="46">
         <v>0.1</v>
       </c>
-      <c r="Y60" s="56" t="s">
+      <c r="Y60" s="47" t="s">
         <v>342</v>
       </c>
-      <c r="Z60" s="57" t="s">
+      <c r="Z60" s="48" t="s">
         <v>378</v>
       </c>
-      <c r="AA60" s="57">
-        <v>1</v>
-      </c>
-      <c r="AC60" s="57">
+      <c r="AA60" s="48">
+        <v>1</v>
+      </c>
+      <c r="AC60" s="48">
         <v>1000</v>
       </c>
-      <c r="AD60" s="57">
+      <c r="AD60" s="48">
         <v>1.5</v>
       </c>
     </row>
-    <row r="61" spans="1:36" s="60" customFormat="1">
-      <c r="A61" s="58">
+    <row r="61" spans="1:36" s="51" customFormat="1">
+      <c r="A61" s="49">
         <v>60</v>
       </c>
-      <c r="B61" s="58">
+      <c r="B61" s="49">
         <v>60</v>
       </c>
-      <c r="C61" s="59" t="s">
+      <c r="C61" s="50" t="s">
         <v>420</v>
       </c>
-      <c r="D61" s="59" t="s">
+      <c r="D61" s="50" t="s">
         <v>421</v>
       </c>
-      <c r="E61" s="59" t="s">
+      <c r="E61" s="50" t="s">
         <v>422</v>
       </c>
-      <c r="F61" s="59" t="s">
+      <c r="F61" s="50" t="s">
         <v>418</v>
       </c>
-      <c r="G61" s="59" t="s">
+      <c r="G61" s="50" t="s">
         <v>421</v>
       </c>
-      <c r="H61" s="59" t="s">
+      <c r="H61" s="50" t="s">
         <v>218</v>
       </c>
-      <c r="I61" s="59">
+      <c r="I61" s="50">
         <v>2.64</v>
       </c>
-      <c r="J61" s="59">
+      <c r="J61" s="50">
         <v>2.38</v>
       </c>
-      <c r="K61" s="58">
-        <v>1</v>
-      </c>
-      <c r="L61" s="58">
+      <c r="K61" s="49">
+        <v>1</v>
+      </c>
+      <c r="L61" s="49">
         <v>30</v>
       </c>
-      <c r="M61" s="59">
-        <v>1</v>
-      </c>
-      <c r="N61" s="58">
+      <c r="M61" s="50">
+        <v>1</v>
+      </c>
+      <c r="N61" s="49">
         <v>0</v>
       </c>
-      <c r="O61" s="58">
+      <c r="O61" s="49">
         <v>4</v>
       </c>
-      <c r="Q61" s="59">
+      <c r="Q61" s="50">
         <v>0.64</v>
       </c>
-      <c r="R61" s="61">
+      <c r="R61" s="52">
         <v>0.73</v>
       </c>
-      <c r="S61" s="61">
+      <c r="S61" s="52">
         <v>0.74</v>
       </c>
-      <c r="T61" s="59" t="s">
+      <c r="T61" s="50" t="s">
         <v>341</v>
       </c>
-      <c r="U61" s="61">
-        <v>1</v>
-      </c>
-      <c r="V61" s="61">
+      <c r="U61" s="52">
+        <v>1</v>
+      </c>
+      <c r="V61" s="52">
         <v>0.8</v>
       </c>
-      <c r="W61" s="61">
+      <c r="W61" s="52">
         <v>0.1</v>
       </c>
-      <c r="Y61" s="62" t="s">
+      <c r="Y61" s="53" t="s">
         <v>342</v>
       </c>
-      <c r="Z61" s="63" t="s">
+      <c r="Z61" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="AA61" s="63">
-        <v>1</v>
-      </c>
-      <c r="AC61" s="63">
+      <c r="AA61" s="54">
+        <v>1</v>
+      </c>
+      <c r="AC61" s="54">
         <v>1000</v>
       </c>
-      <c r="AD61" s="63">
+      <c r="AD61" s="54">
         <v>1.5</v>
       </c>
     </row>
-    <row r="62" spans="1:36" s="65" customFormat="1" ht="16.5">
-      <c r="A62" s="52">
+    <row r="62" spans="1:36" s="56" customFormat="1" ht="16.5">
+      <c r="A62" s="43">
         <v>61</v>
       </c>
-      <c r="B62" s="52">
+      <c r="B62" s="43">
         <v>61</v>
       </c>
-      <c r="C62" s="76" t="s">
+      <c r="C62" s="66" t="s">
         <v>427</v>
       </c>
-      <c r="D62" s="64" t="s">
+      <c r="D62" s="55" t="s">
         <v>424</v>
       </c>
-      <c r="E62" s="53" t="s">
+      <c r="E62" s="44" t="s">
         <v>428</v>
       </c>
-      <c r="F62" s="64" t="s">
+      <c r="F62" s="55" t="s">
         <v>426</v>
       </c>
-      <c r="G62" s="64" t="s">
+      <c r="G62" s="55" t="s">
         <v>425</v>
       </c>
-      <c r="H62" s="53" t="s">
+      <c r="H62" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="I62" s="53">
+      <c r="I62" s="44">
         <v>2.64</v>
       </c>
-      <c r="J62" s="53">
+      <c r="J62" s="44">
         <v>2.38</v>
       </c>
-      <c r="K62" s="52">
-        <v>1</v>
-      </c>
-      <c r="L62" s="52">
+      <c r="K62" s="43">
+        <v>1</v>
+      </c>
+      <c r="L62" s="43">
         <v>30</v>
       </c>
-      <c r="M62" s="53">
-        <v>1</v>
-      </c>
-      <c r="N62" s="52">
+      <c r="M62" s="44">
+        <v>1</v>
+      </c>
+      <c r="N62" s="43">
         <v>0</v>
       </c>
-      <c r="O62" s="52">
+      <c r="O62" s="43">
         <v>4</v>
       </c>
-      <c r="Q62" s="53">
+      <c r="Q62" s="44">
         <v>0.64</v>
       </c>
-      <c r="R62" s="55">
+      <c r="R62" s="46">
         <v>0.73</v>
       </c>
-      <c r="S62" s="55">
+      <c r="S62" s="46">
         <v>0.74</v>
       </c>
-      <c r="T62" s="53" t="s">
+      <c r="T62" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="U62" s="55">
-        <v>1</v>
-      </c>
-      <c r="V62" s="55">
+      <c r="U62" s="46">
+        <v>1</v>
+      </c>
+      <c r="V62" s="46">
         <v>0.8</v>
       </c>
-      <c r="W62" s="55">
+      <c r="W62" s="46">
         <v>0.1</v>
       </c>
-      <c r="X62" s="65" t="s">
+      <c r="X62" s="56" t="s">
         <v>423</v>
       </c>
-      <c r="Y62" s="66" t="s">
+      <c r="Y62" s="57" t="s">
         <v>342</v>
       </c>
-      <c r="Z62" s="52" t="s">
+      <c r="Z62" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="AA62" s="52">
-        <v>1</v>
-      </c>
-      <c r="AC62" s="52">
+      <c r="AA62" s="43">
+        <v>1</v>
+      </c>
+      <c r="AC62" s="43">
         <v>1000</v>
       </c>
-      <c r="AD62" s="52">
+      <c r="AD62" s="43">
         <v>1.5</v>
       </c>
     </row>
-    <row r="63" spans="1:36" s="54" customFormat="1">
+    <row r="63" spans="1:36" s="45" customFormat="1">
       <c r="A63" s="12">
         <v>62</v>
       </c>
       <c r="B63" s="12">
         <v>62</v>
       </c>
-      <c r="C63" s="53" t="s">
+      <c r="C63" s="44" t="s">
         <v>429</v>
       </c>
-      <c r="D63" s="53" t="s">
+      <c r="D63" s="44" t="s">
         <v>430</v>
       </c>
-      <c r="E63" s="53" t="s">
+      <c r="E63" s="44" t="s">
         <v>433</v>
       </c>
-      <c r="F63" s="53" t="s">
+      <c r="F63" s="44" t="s">
         <v>431</v>
       </c>
-      <c r="G63" s="53" t="s">
+      <c r="G63" s="44" t="s">
         <v>432</v>
       </c>
-      <c r="H63" s="53" t="s">
+      <c r="H63" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="I63" s="53">
+      <c r="I63" s="44">
         <v>2.64</v>
       </c>
-      <c r="J63" s="53">
+      <c r="J63" s="44">
         <v>2.38</v>
       </c>
-      <c r="K63" s="52">
-        <v>1</v>
-      </c>
-      <c r="L63" s="52">
+      <c r="K63" s="43">
+        <v>1</v>
+      </c>
+      <c r="L63" s="43">
         <v>30</v>
       </c>
-      <c r="M63" s="53">
-        <v>1</v>
-      </c>
-      <c r="N63" s="52">
+      <c r="M63" s="44">
+        <v>1</v>
+      </c>
+      <c r="N63" s="43">
         <v>0</v>
       </c>
-      <c r="O63" s="52">
+      <c r="O63" s="43">
         <v>4</v>
       </c>
-      <c r="Q63" s="53">
+      <c r="Q63" s="44">
         <v>0.64</v>
       </c>
-      <c r="R63" s="55">
+      <c r="R63" s="46">
         <v>0.73</v>
       </c>
-      <c r="S63" s="55">
+      <c r="S63" s="46">
         <v>0.74</v>
       </c>
-      <c r="T63" s="53" t="s">
+      <c r="T63" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="U63" s="55">
-        <v>1</v>
-      </c>
-      <c r="V63" s="55">
+      <c r="U63" s="46">
+        <v>1</v>
+      </c>
+      <c r="V63" s="46">
         <v>0.8</v>
       </c>
-      <c r="W63" s="55">
+      <c r="W63" s="46">
         <v>0.1</v>
       </c>
-      <c r="Y63" s="56" t="s">
+      <c r="Y63" s="47" t="s">
         <v>342</v>
       </c>
-      <c r="Z63" s="57" t="s">
+      <c r="Z63" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="AA63" s="57">
-        <v>1</v>
-      </c>
-      <c r="AC63" s="57">
+      <c r="AA63" s="48">
+        <v>1</v>
+      </c>
+      <c r="AC63" s="48">
         <v>1000</v>
       </c>
-      <c r="AD63" s="57">
+      <c r="AD63" s="48">
         <v>1.5</v>
       </c>
     </row>
-    <row r="64" spans="1:36">
-      <c r="E64" s="13"/>
+    <row r="64" spans="1:36" s="28" customFormat="1">
+      <c r="A64" s="22">
+        <v>63</v>
+      </c>
+      <c r="B64" s="22">
+        <v>63</v>
+      </c>
+      <c r="C64" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="D64" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="E64" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="F64" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="G64" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="H64" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="I64" s="23">
+        <v>2.72</v>
+      </c>
+      <c r="J64" s="23">
+        <v>2.62</v>
+      </c>
+      <c r="K64" s="22">
+        <v>1</v>
+      </c>
+      <c r="L64" s="22">
+        <v>30</v>
+      </c>
+      <c r="M64" s="25">
+        <v>1</v>
+      </c>
+      <c r="N64" s="22">
+        <v>120</v>
+      </c>
+      <c r="O64" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="R64" s="26">
+        <v>1</v>
+      </c>
+      <c r="S64" s="26">
+        <v>0.74</v>
+      </c>
+      <c r="T64" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="U64" s="26">
+        <v>1</v>
+      </c>
+      <c r="V64" s="26">
+        <v>1</v>
+      </c>
+      <c r="W64" s="26">
+        <v>0.35</v>
+      </c>
+      <c r="X64" s="31" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y64" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z64" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC64" s="28">
+        <v>6500</v>
+      </c>
+      <c r="AD64" s="28">
+        <v>2</v>
+      </c>
+      <c r="AE64" s="28">
+        <v>1</v>
+      </c>
+      <c r="AF64" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG64" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="AJ64" s="27" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="65" spans="1:36" s="28" customFormat="1">
+      <c r="A65" s="22">
+        <v>64</v>
+      </c>
+      <c r="B65" s="22">
+        <v>64</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="D65" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="E65" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="F65" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="G65" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="H65" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="I65" s="23">
+        <v>1.29</v>
+      </c>
+      <c r="J65" s="23">
+        <v>1.8</v>
+      </c>
+      <c r="K65" s="22">
+        <v>1</v>
+      </c>
+      <c r="L65" s="22">
+        <v>30</v>
+      </c>
+      <c r="M65" s="25">
+        <v>1</v>
+      </c>
+      <c r="N65" s="22">
+        <v>120</v>
+      </c>
+      <c r="O65" s="22">
+        <v>3</v>
+      </c>
+      <c r="P65" s="22"/>
+      <c r="Q65" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="R65" s="26">
+        <v>1</v>
+      </c>
+      <c r="S65" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="T65" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="U65" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="V65" s="26">
+        <v>1</v>
+      </c>
+      <c r="W65" s="26">
+        <v>0.35</v>
+      </c>
+      <c r="X65" s="31" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y65" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z65" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC65" s="28">
+        <v>6300</v>
+      </c>
+      <c r="AD65" s="28">
+        <v>2</v>
+      </c>
+      <c r="AE65" s="28">
+        <v>1</v>
+      </c>
+      <c r="AG65" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="AJ65" s="27" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="66" spans="1:36" s="28" customFormat="1">
+      <c r="A66" s="22">
+        <v>65</v>
+      </c>
+      <c r="B66" s="22">
+        <v>65</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D66" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="E66" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="F66" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="G66" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="H66" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="I66" s="23">
+        <v>0.94</v>
+      </c>
+      <c r="J66" s="23">
+        <v>1.9</v>
+      </c>
+      <c r="K66" s="22">
+        <v>1</v>
+      </c>
+      <c r="L66" s="22">
+        <v>30</v>
+      </c>
+      <c r="M66" s="25">
+        <v>1</v>
+      </c>
+      <c r="N66" s="22">
+        <v>120</v>
+      </c>
+      <c r="O66" s="22">
+        <v>1</v>
+      </c>
+      <c r="P66" s="22"/>
+      <c r="Q66" s="23">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="R66" s="26">
+        <v>1</v>
+      </c>
+      <c r="S66" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="T66" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="U66" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="V66" s="26">
+        <v>1</v>
+      </c>
+      <c r="W66" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="X66" s="31" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y66" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z66" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC66" s="28">
+        <v>6200</v>
+      </c>
+      <c r="AD66" s="28">
+        <v>1.2</v>
+      </c>
+      <c r="AF66" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG66" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ66" s="27" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="67" spans="1:36" s="28" customFormat="1">
+      <c r="A67" s="22">
+        <v>66</v>
+      </c>
+      <c r="B67" s="22">
+        <v>66</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D67" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="E67" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="F67" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="G67" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="H67" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="I67" s="23">
+        <v>1.44</v>
+      </c>
+      <c r="J67" s="23">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="K67" s="22">
+        <v>1</v>
+      </c>
+      <c r="L67" s="22">
+        <v>30</v>
+      </c>
+      <c r="M67" s="25">
+        <v>1</v>
+      </c>
+      <c r="N67" s="22">
+        <v>160</v>
+      </c>
+      <c r="O67" s="22">
+        <v>2</v>
+      </c>
+      <c r="P67" s="31"/>
+      <c r="Q67" s="23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R67" s="26">
+        <v>1</v>
+      </c>
+      <c r="S67" s="26">
+        <v>0.74</v>
+      </c>
+      <c r="T67" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="U67" s="26">
+        <v>1</v>
+      </c>
+      <c r="V67" s="26">
+        <v>1</v>
+      </c>
+      <c r="W67" s="26">
+        <v>0.35</v>
+      </c>
+      <c r="X67" s="31" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y67" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z67" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB67" s="27"/>
+      <c r="AC67" s="28">
+        <v>6000</v>
+      </c>
+      <c r="AD67" s="28">
+        <v>2</v>
+      </c>
+      <c r="AE67" s="28">
+        <v>1</v>
+      </c>
+      <c r="AJ67" s="27" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="68" spans="1:36" s="28" customFormat="1">
+      <c r="A68" s="22">
+        <v>67</v>
+      </c>
+      <c r="B68" s="22">
+        <v>67</v>
+      </c>
+      <c r="C68" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="D68" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="E68" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F68" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="G68" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="H68" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="I68" s="23">
+        <v>3.77</v>
+      </c>
+      <c r="J68" s="23">
+        <v>2.8</v>
+      </c>
+      <c r="K68" s="22">
+        <v>1</v>
+      </c>
+      <c r="L68" s="22">
+        <v>30</v>
+      </c>
+      <c r="M68" s="25">
+        <v>1</v>
+      </c>
+      <c r="N68" s="22">
+        <v>200</v>
+      </c>
+      <c r="O68" s="22">
+        <v>4</v>
+      </c>
+      <c r="P68" s="31"/>
+      <c r="Q68" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="R68" s="26">
+        <v>1</v>
+      </c>
+      <c r="S68" s="26">
+        <v>0.74</v>
+      </c>
+      <c r="T68" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="U68" s="26">
+        <v>1</v>
+      </c>
+      <c r="V68" s="26">
+        <v>1</v>
+      </c>
+      <c r="W68" s="26">
+        <v>0.35</v>
+      </c>
+      <c r="X68" s="31" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y68" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z68" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB68" s="27"/>
+      <c r="AC68" s="28">
+        <v>5900</v>
+      </c>
+      <c r="AD68" s="28">
+        <v>2</v>
+      </c>
+      <c r="AE68" s="28">
+        <v>1</v>
+      </c>
+      <c r="AF68" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG68" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="AJ68" s="27" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="69" spans="1:36" s="28" customFormat="1">
+      <c r="A69" s="22">
+        <v>68</v>
+      </c>
+      <c r="B69" s="22">
+        <v>68</v>
+      </c>
+      <c r="C69" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D69" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="E69" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="F69" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="G69" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="H69" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="I69" s="23">
+        <v>2.64</v>
+      </c>
+      <c r="J69" s="23">
+        <v>2.38</v>
+      </c>
+      <c r="K69" s="22">
+        <v>1</v>
+      </c>
+      <c r="L69" s="22">
+        <v>30</v>
+      </c>
+      <c r="M69" s="30">
+        <v>1</v>
+      </c>
+      <c r="N69" s="22">
+        <v>200</v>
+      </c>
+      <c r="O69" s="22">
+        <v>4</v>
+      </c>
+      <c r="P69" s="31"/>
+      <c r="Q69" s="23">
+        <v>1.2</v>
+      </c>
+      <c r="R69" s="26">
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="S69" s="26">
+        <v>0.74</v>
+      </c>
+      <c r="T69" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="U69" s="26">
+        <v>1</v>
+      </c>
+      <c r="V69" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="W69" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="X69" s="31" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y69" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z69" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA69" s="27"/>
+      <c r="AB69" s="27"/>
+      <c r="AC69" s="28">
+        <v>5800</v>
+      </c>
+      <c r="AD69" s="28">
+        <v>2</v>
+      </c>
+      <c r="AE69" s="28">
+        <v>1</v>
+      </c>
+      <c r="AG69" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ69" s="27" t="s">
+        <v>353</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
